--- a/ishtrokchilar.xlsx
+++ b/ishtrokchilar.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Участники" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -490,6 +490,9 @@
       <c r="I2">
         <v>200000</v>
       </c>
+      <c r="J2" t="str">
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -519,6 +522,9 @@
       <c r="I3">
         <v>200000</v>
       </c>
+      <c r="J3" t="str">
+        <v/>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -548,6 +554,9 @@
       <c r="I4">
         <v>200000</v>
       </c>
+      <c r="J4" t="str">
+        <v/>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -577,6 +586,9 @@
       <c r="I5">
         <v>200000</v>
       </c>
+      <c r="J5" t="str">
+        <v/>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -606,6 +618,9 @@
       <c r="I6">
         <v>200000</v>
       </c>
+      <c r="J6" t="str">
+        <v/>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -635,6 +650,9 @@
       <c r="I7">
         <v>200000</v>
       </c>
+      <c r="J7" t="str">
+        <v/>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -664,6 +682,9 @@
       <c r="I8">
         <v>200000</v>
       </c>
+      <c r="J8" t="str">
+        <v/>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -693,6 +714,9 @@
       <c r="I9">
         <v>200000</v>
       </c>
+      <c r="J9" t="str">
+        <v/>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -722,6 +746,9 @@
       <c r="I10">
         <v>200000</v>
       </c>
+      <c r="J10" t="str">
+        <v/>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -751,6 +778,9 @@
       <c r="I11">
         <v>200000</v>
       </c>
+      <c r="J11" t="str">
+        <v/>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -780,6 +810,9 @@
       <c r="I12">
         <v>200000</v>
       </c>
+      <c r="J12" t="str">
+        <v/>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -809,6 +842,9 @@
       <c r="I13">
         <v>200000</v>
       </c>
+      <c r="J13" t="str">
+        <v/>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -838,6 +874,9 @@
       <c r="I14">
         <v>200000</v>
       </c>
+      <c r="J14" t="str">
+        <v/>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -867,6 +906,9 @@
       <c r="I15">
         <v>200000</v>
       </c>
+      <c r="J15" t="str">
+        <v/>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -896,6 +938,9 @@
       <c r="I16">
         <v>200000</v>
       </c>
+      <c r="J16" t="str">
+        <v/>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -925,6 +970,9 @@
       <c r="I17">
         <v>200000</v>
       </c>
+      <c r="J17" t="str">
+        <v/>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -954,6 +1002,9 @@
       <c r="I18">
         <v>200000</v>
       </c>
+      <c r="J18" t="str">
+        <v/>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -983,6 +1034,9 @@
       <c r="I19">
         <v>200000</v>
       </c>
+      <c r="J19" t="str">
+        <v/>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -1012,6 +1066,9 @@
       <c r="I20">
         <v>200000</v>
       </c>
+      <c r="J20" t="str">
+        <v/>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -1041,6 +1098,9 @@
       <c r="I21">
         <v>200000</v>
       </c>
+      <c r="J21" t="str">
+        <v/>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -1070,6 +1130,9 @@
       <c r="I22">
         <v>200000</v>
       </c>
+      <c r="J22" t="str">
+        <v/>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -1099,6 +1162,9 @@
       <c r="I23">
         <v>200000</v>
       </c>
+      <c r="J23" t="str">
+        <v/>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -1128,6 +1194,9 @@
       <c r="I24">
         <v>200000</v>
       </c>
+      <c r="J24" t="str">
+        <v/>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -1157,6 +1226,9 @@
       <c r="I25">
         <v>200000</v>
       </c>
+      <c r="J25" t="str">
+        <v/>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -1186,6 +1258,9 @@
       <c r="I26">
         <v>200000</v>
       </c>
+      <c r="J26" t="str">
+        <v/>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -1215,6 +1290,9 @@
       <c r="I27">
         <v>200000</v>
       </c>
+      <c r="J27" t="str">
+        <v/>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -1244,6 +1322,9 @@
       <c r="I28">
         <v>200000</v>
       </c>
+      <c r="J28" t="str">
+        <v/>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -1273,6 +1354,9 @@
       <c r="I29">
         <v>200000</v>
       </c>
+      <c r="J29" t="str">
+        <v/>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -1302,6 +1386,9 @@
       <c r="I30">
         <v>200000</v>
       </c>
+      <c r="J30" t="str">
+        <v/>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -1331,6 +1418,9 @@
       <c r="I31">
         <v>200000</v>
       </c>
+      <c r="J31" t="str">
+        <v/>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -1360,6 +1450,9 @@
       <c r="I32">
         <v>200000</v>
       </c>
+      <c r="J32" t="str">
+        <v/>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
@@ -1389,6 +1482,9 @@
       <c r="I33">
         <v>200000</v>
       </c>
+      <c r="J33" t="str">
+        <v/>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
@@ -1418,6 +1514,9 @@
       <c r="I34">
         <v>200000</v>
       </c>
+      <c r="J34" t="str">
+        <v/>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
@@ -1447,6 +1546,9 @@
       <c r="I35">
         <v>200000</v>
       </c>
+      <c r="J35" t="str">
+        <v/>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
@@ -1476,6 +1578,9 @@
       <c r="I36">
         <v>200000</v>
       </c>
+      <c r="J36" t="str">
+        <v/>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
@@ -1505,6 +1610,9 @@
       <c r="I37">
         <v>200000</v>
       </c>
+      <c r="J37" t="str">
+        <v/>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
@@ -1534,6 +1642,9 @@
       <c r="I38">
         <v>200000</v>
       </c>
+      <c r="J38" t="str">
+        <v/>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
@@ -1563,6 +1674,9 @@
       <c r="I39">
         <v>200000</v>
       </c>
+      <c r="J39" t="str">
+        <v/>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
@@ -1592,6 +1706,9 @@
       <c r="I40">
         <v>200000</v>
       </c>
+      <c r="J40" t="str">
+        <v/>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
@@ -1621,6 +1738,9 @@
       <c r="I41">
         <v>200000</v>
       </c>
+      <c r="J41" t="str">
+        <v/>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
@@ -1650,6 +1770,9 @@
       <c r="I42">
         <v>200000</v>
       </c>
+      <c r="J42" t="str">
+        <v/>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
@@ -1679,6 +1802,9 @@
       <c r="I43">
         <v>200000</v>
       </c>
+      <c r="J43" t="str">
+        <v/>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
@@ -1708,6 +1834,9 @@
       <c r="I44">
         <v>200000</v>
       </c>
+      <c r="J44" t="str">
+        <v/>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
@@ -1737,6 +1866,9 @@
       <c r="I45">
         <v>200000</v>
       </c>
+      <c r="J45" t="str">
+        <v/>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
@@ -1766,6 +1898,9 @@
       <c r="I46">
         <v>200000</v>
       </c>
+      <c r="J46" t="str">
+        <v/>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
@@ -1795,6 +1930,9 @@
       <c r="I47">
         <v>200000</v>
       </c>
+      <c r="J47" t="str">
+        <v/>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
@@ -1824,6 +1962,9 @@
       <c r="I48">
         <v>200000</v>
       </c>
+      <c r="J48" t="str">
+        <v/>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
@@ -1853,6 +1994,9 @@
       <c r="I49">
         <v>200000</v>
       </c>
+      <c r="J49" t="str">
+        <v/>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
@@ -1882,6 +2026,9 @@
       <c r="I50">
         <v>200000</v>
       </c>
+      <c r="J50" t="str">
+        <v/>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
@@ -1911,6 +2058,9 @@
       <c r="I51">
         <v>200000</v>
       </c>
+      <c r="J51" t="str">
+        <v/>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
@@ -1940,6 +2090,9 @@
       <c r="I52">
         <v>200000</v>
       </c>
+      <c r="J52" t="str">
+        <v/>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
@@ -1969,6 +2122,9 @@
       <c r="I53">
         <v>200000</v>
       </c>
+      <c r="J53" t="str">
+        <v/>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
@@ -1998,6 +2154,9 @@
       <c r="I54">
         <v>200000</v>
       </c>
+      <c r="J54" t="str">
+        <v/>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
@@ -2027,6 +2186,9 @@
       <c r="I55">
         <v>200000</v>
       </c>
+      <c r="J55" t="str">
+        <v/>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
@@ -2056,6 +2218,9 @@
       <c r="I56">
         <v>200000</v>
       </c>
+      <c r="J56" t="str">
+        <v/>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
@@ -2085,6 +2250,9 @@
       <c r="I57">
         <v>200000</v>
       </c>
+      <c r="J57" t="str">
+        <v/>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
@@ -2114,6 +2282,9 @@
       <c r="I58">
         <v>200000</v>
       </c>
+      <c r="J58" t="str">
+        <v/>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
@@ -2143,6 +2314,9 @@
       <c r="I59">
         <v>200000</v>
       </c>
+      <c r="J59" t="str">
+        <v/>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
@@ -2172,6 +2346,9 @@
       <c r="I60">
         <v>200000</v>
       </c>
+      <c r="J60" t="str">
+        <v/>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
@@ -2201,6 +2378,9 @@
       <c r="I61">
         <v>200000</v>
       </c>
+      <c r="J61" t="str">
+        <v/>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
@@ -2230,6 +2410,9 @@
       <c r="I62">
         <v>200000</v>
       </c>
+      <c r="J62" t="str">
+        <v/>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
@@ -2259,6 +2442,9 @@
       <c r="I63">
         <v>200000</v>
       </c>
+      <c r="J63" t="str">
+        <v/>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
@@ -2288,6 +2474,9 @@
       <c r="I64">
         <v>200000</v>
       </c>
+      <c r="J64" t="str">
+        <v/>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
@@ -2317,6 +2506,9 @@
       <c r="I65">
         <v>200000</v>
       </c>
+      <c r="J65" t="str">
+        <v/>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
@@ -2346,6 +2538,9 @@
       <c r="I66">
         <v>200000</v>
       </c>
+      <c r="J66" t="str">
+        <v/>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
@@ -2375,6 +2570,9 @@
       <c r="I67">
         <v>200000</v>
       </c>
+      <c r="J67" t="str">
+        <v/>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
@@ -2404,6 +2602,9 @@
       <c r="I68">
         <v>200000</v>
       </c>
+      <c r="J68" t="str">
+        <v/>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
@@ -2433,6 +2634,9 @@
       <c r="I69">
         <v>200000</v>
       </c>
+      <c r="J69" t="str">
+        <v/>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
@@ -2462,6 +2666,9 @@
       <c r="I70">
         <v>200000</v>
       </c>
+      <c r="J70" t="str">
+        <v/>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
@@ -2491,6 +2698,9 @@
       <c r="I71">
         <v>200000</v>
       </c>
+      <c r="J71" t="str">
+        <v/>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
@@ -2520,6 +2730,9 @@
       <c r="I72">
         <v>200000</v>
       </c>
+      <c r="J72" t="str">
+        <v/>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
@@ -2549,6 +2762,9 @@
       <c r="I73">
         <v>200000</v>
       </c>
+      <c r="J73" t="str">
+        <v/>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
@@ -2578,6 +2794,9 @@
       <c r="I74">
         <v>200000</v>
       </c>
+      <c r="J74" t="str">
+        <v/>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
@@ -2607,6 +2826,9 @@
       <c r="I75">
         <v>200000</v>
       </c>
+      <c r="J75" t="str">
+        <v/>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
@@ -2636,6 +2858,9 @@
       <c r="I76">
         <v>200000</v>
       </c>
+      <c r="J76" t="str">
+        <v/>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
@@ -2665,6 +2890,9 @@
       <c r="I77">
         <v>200000</v>
       </c>
+      <c r="J77" t="str">
+        <v/>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
@@ -2694,6 +2922,9 @@
       <c r="I78">
         <v>200000</v>
       </c>
+      <c r="J78" t="str">
+        <v/>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
@@ -2723,6 +2954,9 @@
       <c r="I79">
         <v>200000</v>
       </c>
+      <c r="J79" t="str">
+        <v/>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
@@ -2752,6 +2986,9 @@
       <c r="I80">
         <v>200000</v>
       </c>
+      <c r="J80" t="str">
+        <v/>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
@@ -2781,6 +3018,9 @@
       <c r="I81">
         <v>200000</v>
       </c>
+      <c r="J81" t="str">
+        <v/>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
@@ -2810,6 +3050,9 @@
       <c r="I82">
         <v>200000</v>
       </c>
+      <c r="J82" t="str">
+        <v/>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
@@ -2839,6 +3082,9 @@
       <c r="I83">
         <v>200000</v>
       </c>
+      <c r="J83" t="str">
+        <v/>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
@@ -2868,6 +3114,9 @@
       <c r="I84">
         <v>200000</v>
       </c>
+      <c r="J84" t="str">
+        <v/>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
@@ -2897,6 +3146,9 @@
       <c r="I85">
         <v>200000</v>
       </c>
+      <c r="J85" t="str">
+        <v/>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
@@ -2926,6 +3178,9 @@
       <c r="I86">
         <v>200000</v>
       </c>
+      <c r="J86" t="str">
+        <v/>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
@@ -2955,6 +3210,9 @@
       <c r="I87">
         <v>200000</v>
       </c>
+      <c r="J87" t="str">
+        <v/>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
@@ -2984,6 +3242,9 @@
       <c r="I88">
         <v>200000</v>
       </c>
+      <c r="J88" t="str">
+        <v/>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
@@ -3013,6 +3274,9 @@
       <c r="I89">
         <v>200000</v>
       </c>
+      <c r="J89" t="str">
+        <v/>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
@@ -3042,6 +3306,9 @@
       <c r="I90">
         <v>200000</v>
       </c>
+      <c r="J90" t="str">
+        <v/>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
@@ -3071,6 +3338,9 @@
       <c r="I91">
         <v>200000</v>
       </c>
+      <c r="J91" t="str">
+        <v/>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
@@ -3100,6 +3370,9 @@
       <c r="I92">
         <v>200000</v>
       </c>
+      <c r="J92" t="str">
+        <v/>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
@@ -3129,6 +3402,9 @@
       <c r="I93">
         <v>200000</v>
       </c>
+      <c r="J93" t="str">
+        <v/>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
@@ -3158,6 +3434,9 @@
       <c r="I94">
         <v>200000</v>
       </c>
+      <c r="J94" t="str">
+        <v/>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
@@ -3187,6 +3466,9 @@
       <c r="I95">
         <v>200000</v>
       </c>
+      <c r="J95" t="str">
+        <v/>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
@@ -3216,6 +3498,9 @@
       <c r="I96">
         <v>200000</v>
       </c>
+      <c r="J96" t="str">
+        <v/>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
@@ -3245,6 +3530,9 @@
       <c r="I97">
         <v>200000</v>
       </c>
+      <c r="J97" t="str">
+        <v/>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
@@ -3274,6 +3562,9 @@
       <c r="I98">
         <v>200000</v>
       </c>
+      <c r="J98" t="str">
+        <v/>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
@@ -3335,6 +3626,9 @@
       <c r="I100">
         <v>200000</v>
       </c>
+      <c r="J100" t="str">
+        <v/>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
@@ -3364,6 +3658,9 @@
       <c r="I101">
         <v>200000</v>
       </c>
+      <c r="J101" t="str">
+        <v/>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
@@ -3393,6 +3690,9 @@
       <c r="I102">
         <v>200000</v>
       </c>
+      <c r="J102" t="str">
+        <v/>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
@@ -3422,6 +3722,9 @@
       <c r="I103">
         <v>200000</v>
       </c>
+      <c r="J103" t="str">
+        <v/>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
@@ -3451,6 +3754,9 @@
       <c r="I104">
         <v>200000</v>
       </c>
+      <c r="J104" t="str">
+        <v/>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
@@ -3480,6 +3786,9 @@
       <c r="I105">
         <v>200000</v>
       </c>
+      <c r="J105" t="str">
+        <v/>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
@@ -3509,6 +3818,9 @@
       <c r="I106">
         <v>200000</v>
       </c>
+      <c r="J106" t="str">
+        <v/>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
@@ -3538,6 +3850,9 @@
       <c r="I107">
         <v>200000</v>
       </c>
+      <c r="J107" t="str">
+        <v/>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
@@ -3567,6 +3882,9 @@
       <c r="I108">
         <v>200000</v>
       </c>
+      <c r="J108" t="str">
+        <v/>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
@@ -3596,6 +3914,9 @@
       <c r="I109">
         <v>200000</v>
       </c>
+      <c r="J109" t="str">
+        <v/>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
@@ -3625,6 +3946,9 @@
       <c r="I110">
         <v>200000</v>
       </c>
+      <c r="J110" t="str">
+        <v/>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
@@ -3654,6 +3978,9 @@
       <c r="I111">
         <v>200000</v>
       </c>
+      <c r="J111" t="str">
+        <v/>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
@@ -3683,6 +4010,9 @@
       <c r="I112">
         <v>200000</v>
       </c>
+      <c r="J112" t="str">
+        <v/>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
@@ -3712,6 +4042,9 @@
       <c r="I113">
         <v>200000</v>
       </c>
+      <c r="J113" t="str">
+        <v/>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
@@ -3741,6 +4074,9 @@
       <c r="I114">
         <v>200000</v>
       </c>
+      <c r="J114" t="str">
+        <v/>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
@@ -3770,6 +4106,9 @@
       <c r="I115">
         <v>200000</v>
       </c>
+      <c r="J115" t="str">
+        <v/>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
@@ -3799,6 +4138,9 @@
       <c r="I116">
         <v>200000</v>
       </c>
+      <c r="J116" t="str">
+        <v/>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
@@ -3828,6 +4170,9 @@
       <c r="I117">
         <v>200000</v>
       </c>
+      <c r="J117" t="str">
+        <v/>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
@@ -3857,6 +4202,9 @@
       <c r="I118">
         <v>200000</v>
       </c>
+      <c r="J118" t="str">
+        <v/>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
@@ -3886,6 +4234,9 @@
       <c r="I119">
         <v>200000</v>
       </c>
+      <c r="J119" t="str">
+        <v/>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
@@ -3915,6 +4266,9 @@
       <c r="I120">
         <v>200000</v>
       </c>
+      <c r="J120" t="str">
+        <v/>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
@@ -3944,6 +4298,9 @@
       <c r="I121">
         <v>200000</v>
       </c>
+      <c r="J121" t="str">
+        <v/>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
@@ -3973,6 +4330,9 @@
       <c r="I122">
         <v>200000</v>
       </c>
+      <c r="J122" t="str">
+        <v/>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
@@ -4002,6 +4362,9 @@
       <c r="I123">
         <v>200000</v>
       </c>
+      <c r="J123" t="str">
+        <v/>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
@@ -4031,6 +4394,9 @@
       <c r="I124">
         <v>200000</v>
       </c>
+      <c r="J124" t="str">
+        <v/>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
@@ -4060,6 +4426,9 @@
       <c r="I125">
         <v>200000</v>
       </c>
+      <c r="J125" t="str">
+        <v/>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
@@ -4089,6 +4458,9 @@
       <c r="I126">
         <v>200000</v>
       </c>
+      <c r="J126" t="str">
+        <v/>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
@@ -4118,6 +4490,9 @@
       <c r="I127">
         <v>200000</v>
       </c>
+      <c r="J127" t="str">
+        <v/>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
@@ -4147,6 +4522,9 @@
       <c r="I128">
         <v>200000</v>
       </c>
+      <c r="J128" t="str">
+        <v/>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
@@ -4176,6 +4554,9 @@
       <c r="I129">
         <v>200000</v>
       </c>
+      <c r="J129" t="str">
+        <v/>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
@@ -4205,6 +4586,9 @@
       <c r="I130">
         <v>200000</v>
       </c>
+      <c r="J130" t="str">
+        <v/>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
@@ -4234,6 +4618,9 @@
       <c r="I131">
         <v>200000</v>
       </c>
+      <c r="J131" t="str">
+        <v/>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
@@ -4263,6 +4650,9 @@
       <c r="I132">
         <v>200000</v>
       </c>
+      <c r="J132" t="str">
+        <v/>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
@@ -4292,6 +4682,9 @@
       <c r="I133">
         <v>200000</v>
       </c>
+      <c r="J133" t="str">
+        <v/>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
@@ -4321,6 +4714,9 @@
       <c r="I134">
         <v>200000</v>
       </c>
+      <c r="J134" t="str">
+        <v/>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
@@ -4350,6 +4746,9 @@
       <c r="I135">
         <v>200000</v>
       </c>
+      <c r="J135" t="str">
+        <v/>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
@@ -4379,6 +4778,9 @@
       <c r="I136">
         <v>200000</v>
       </c>
+      <c r="J136" t="str">
+        <v/>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
@@ -4408,6 +4810,9 @@
       <c r="I137">
         <v>200000</v>
       </c>
+      <c r="J137" t="str">
+        <v/>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
@@ -4437,6 +4842,9 @@
       <c r="I138">
         <v>200000</v>
       </c>
+      <c r="J138" t="str">
+        <v/>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
@@ -4466,6 +4874,9 @@
       <c r="I139">
         <v>200000</v>
       </c>
+      <c r="J139" t="str">
+        <v/>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
@@ -4495,6 +4906,9 @@
       <c r="I140">
         <v>200000</v>
       </c>
+      <c r="J140" t="str">
+        <v/>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
@@ -4524,6 +4938,9 @@
       <c r="I141">
         <v>200000</v>
       </c>
+      <c r="J141" t="str">
+        <v/>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
@@ -4553,6 +4970,9 @@
       <c r="I142">
         <v>200000</v>
       </c>
+      <c r="J142" t="str">
+        <v/>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
@@ -4582,6 +5002,9 @@
       <c r="I143">
         <v>200000</v>
       </c>
+      <c r="J143" t="str">
+        <v/>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
@@ -4611,6 +5034,9 @@
       <c r="I144">
         <v>200000</v>
       </c>
+      <c r="J144" t="str">
+        <v/>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
@@ -4640,6 +5066,9 @@
       <c r="I145">
         <v>200000</v>
       </c>
+      <c r="J145" t="str">
+        <v/>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
@@ -4669,6 +5098,9 @@
       <c r="I146">
         <v>200000</v>
       </c>
+      <c r="J146" t="str">
+        <v/>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
@@ -4698,6 +5130,9 @@
       <c r="I147">
         <v>200000</v>
       </c>
+      <c r="J147" t="str">
+        <v/>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
@@ -4727,6 +5162,9 @@
       <c r="I148">
         <v>200000</v>
       </c>
+      <c r="J148" t="str">
+        <v/>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
@@ -4756,6 +5194,9 @@
       <c r="I149">
         <v>200000</v>
       </c>
+      <c r="J149" t="str">
+        <v/>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
@@ -4785,6 +5226,9 @@
       <c r="I150">
         <v>200000</v>
       </c>
+      <c r="J150" t="str">
+        <v/>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
@@ -4814,6 +5258,9 @@
       <c r="I151">
         <v>200000</v>
       </c>
+      <c r="J151" t="str">
+        <v/>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
@@ -4843,6 +5290,9 @@
       <c r="I152">
         <v>200000</v>
       </c>
+      <c r="J152" t="str">
+        <v/>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
@@ -4872,6 +5322,9 @@
       <c r="I153">
         <v>200000</v>
       </c>
+      <c r="J153" t="str">
+        <v/>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
@@ -4901,6 +5354,9 @@
       <c r="I154">
         <v>200000</v>
       </c>
+      <c r="J154" t="str">
+        <v/>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
@@ -4930,6 +5386,9 @@
       <c r="I155">
         <v>200000</v>
       </c>
+      <c r="J155" t="str">
+        <v/>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
@@ -4959,6 +5418,9 @@
       <c r="I156">
         <v>200000</v>
       </c>
+      <c r="J156" t="str">
+        <v/>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
@@ -4988,6 +5450,9 @@
       <c r="I157">
         <v>200000</v>
       </c>
+      <c r="J157" t="str">
+        <v/>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
@@ -5017,6 +5482,9 @@
       <c r="I158">
         <v>200000</v>
       </c>
+      <c r="J158" t="str">
+        <v/>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
@@ -5046,6 +5514,9 @@
       <c r="I159">
         <v>200000</v>
       </c>
+      <c r="J159" t="str">
+        <v/>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
@@ -5075,6 +5546,9 @@
       <c r="I160">
         <v>200000</v>
       </c>
+      <c r="J160" t="str">
+        <v/>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
@@ -5104,6 +5578,9 @@
       <c r="I161">
         <v>200000</v>
       </c>
+      <c r="J161" t="str">
+        <v/>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
@@ -5133,6 +5610,9 @@
       <c r="I162">
         <v>200000</v>
       </c>
+      <c r="J162" t="str">
+        <v/>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
@@ -5162,6 +5642,9 @@
       <c r="I163">
         <v>200000</v>
       </c>
+      <c r="J163" t="str">
+        <v/>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
@@ -5191,6 +5674,9 @@
       <c r="I164">
         <v>200000</v>
       </c>
+      <c r="J164" t="str">
+        <v/>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
@@ -5220,6 +5706,9 @@
       <c r="I165">
         <v>200000</v>
       </c>
+      <c r="J165" t="str">
+        <v/>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
@@ -5249,6 +5738,9 @@
       <c r="I166">
         <v>200000</v>
       </c>
+      <c r="J166" t="str">
+        <v/>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
@@ -5278,6 +5770,9 @@
       <c r="I167">
         <v>200000</v>
       </c>
+      <c r="J167" t="str">
+        <v/>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
@@ -5307,6 +5802,9 @@
       <c r="I168">
         <v>200000</v>
       </c>
+      <c r="J168" t="str">
+        <v/>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
@@ -5336,6 +5834,9 @@
       <c r="I169">
         <v>200000</v>
       </c>
+      <c r="J169" t="str">
+        <v/>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
@@ -5365,6 +5866,9 @@
       <c r="I170">
         <v>200000</v>
       </c>
+      <c r="J170" t="str">
+        <v/>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
@@ -5394,6 +5898,9 @@
       <c r="I171">
         <v>200000</v>
       </c>
+      <c r="J171" t="str">
+        <v/>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
@@ -5423,6 +5930,9 @@
       <c r="I172">
         <v>200000</v>
       </c>
+      <c r="J172" t="str">
+        <v/>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
@@ -5452,6 +5962,9 @@
       <c r="I173">
         <v>200000</v>
       </c>
+      <c r="J173" t="str">
+        <v/>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
@@ -5481,6 +5994,9 @@
       <c r="I174">
         <v>200000</v>
       </c>
+      <c r="J174" t="str">
+        <v/>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
@@ -5510,6 +6026,9 @@
       <c r="I175">
         <v>200000</v>
       </c>
+      <c r="J175" t="str">
+        <v/>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
@@ -5539,6 +6058,9 @@
       <c r="I176">
         <v>200000</v>
       </c>
+      <c r="J176" t="str">
+        <v/>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
@@ -5568,6 +6090,9 @@
       <c r="I177">
         <v>200000</v>
       </c>
+      <c r="J177" t="str">
+        <v/>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
@@ -5597,6 +6122,9 @@
       <c r="I178">
         <v>200000</v>
       </c>
+      <c r="J178" t="str">
+        <v/>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
@@ -5626,6 +6154,9 @@
       <c r="I179">
         <v>200000</v>
       </c>
+      <c r="J179" t="str">
+        <v/>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
@@ -5655,6 +6186,9 @@
       <c r="I180">
         <v>200000</v>
       </c>
+      <c r="J180" t="str">
+        <v/>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
@@ -5684,6 +6218,9 @@
       <c r="I181">
         <v>200000</v>
       </c>
+      <c r="J181" t="str">
+        <v/>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
@@ -5713,6 +6250,9 @@
       <c r="I182">
         <v>200000</v>
       </c>
+      <c r="J182" t="str">
+        <v/>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
@@ -5742,6 +6282,9 @@
       <c r="I183">
         <v>200000</v>
       </c>
+      <c r="J183" t="str">
+        <v/>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
@@ -5771,6 +6314,9 @@
       <c r="I184">
         <v>200000</v>
       </c>
+      <c r="J184" t="str">
+        <v/>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
@@ -5800,6 +6346,9 @@
       <c r="I185">
         <v>200000</v>
       </c>
+      <c r="J185" t="str">
+        <v/>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
@@ -5829,6 +6378,9 @@
       <c r="I186">
         <v>200000</v>
       </c>
+      <c r="J186" t="str">
+        <v/>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
@@ -5858,6 +6410,9 @@
       <c r="I187">
         <v>200000</v>
       </c>
+      <c r="J187" t="str">
+        <v/>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
@@ -5887,6 +6442,9 @@
       <c r="I188">
         <v>200000</v>
       </c>
+      <c r="J188" t="str">
+        <v/>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
@@ -5916,6 +6474,9 @@
       <c r="I189">
         <v>200000</v>
       </c>
+      <c r="J189" t="str">
+        <v/>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
@@ -5945,6 +6506,9 @@
       <c r="I190">
         <v>200000</v>
       </c>
+      <c r="J190" t="str">
+        <v/>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
@@ -5974,6 +6538,9 @@
       <c r="I191">
         <v>200000</v>
       </c>
+      <c r="J191" t="str">
+        <v/>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
@@ -6003,6 +6570,9 @@
       <c r="I192">
         <v>200000</v>
       </c>
+      <c r="J192" t="str">
+        <v/>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
@@ -6032,6 +6602,9 @@
       <c r="I193">
         <v>200000</v>
       </c>
+      <c r="J193" t="str">
+        <v/>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
@@ -6061,6 +6634,9 @@
       <c r="I194">
         <v>200000</v>
       </c>
+      <c r="J194" t="str">
+        <v/>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
@@ -6090,6 +6666,9 @@
       <c r="I195">
         <v>200000</v>
       </c>
+      <c r="J195" t="str">
+        <v/>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
@@ -6119,6 +6698,9 @@
       <c r="I196">
         <v>200000</v>
       </c>
+      <c r="J196" t="str">
+        <v/>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
@@ -6148,6 +6730,9 @@
       <c r="I197">
         <v>200000</v>
       </c>
+      <c r="J197" t="str">
+        <v/>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
@@ -6177,6 +6762,9 @@
       <c r="I198">
         <v>200000</v>
       </c>
+      <c r="J198" t="str">
+        <v/>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
@@ -6206,6 +6794,9 @@
       <c r="I199">
         <v>200000</v>
       </c>
+      <c r="J199" t="str">
+        <v/>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
@@ -6235,6 +6826,9 @@
       <c r="I200">
         <v>200000</v>
       </c>
+      <c r="J200" t="str">
+        <v/>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
@@ -6264,6 +6858,9 @@
       <c r="I201">
         <v>200000</v>
       </c>
+      <c r="J201" t="str">
+        <v/>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
@@ -6293,6 +6890,9 @@
       <c r="I202">
         <v>200000</v>
       </c>
+      <c r="J202" t="str">
+        <v/>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
@@ -6322,6 +6922,9 @@
       <c r="I203">
         <v>200000</v>
       </c>
+      <c r="J203" t="str">
+        <v/>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
@@ -6351,6 +6954,9 @@
       <c r="I204">
         <v>200000</v>
       </c>
+      <c r="J204" t="str">
+        <v/>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
@@ -6380,6 +6986,9 @@
       <c r="I205">
         <v>200000</v>
       </c>
+      <c r="J205" t="str">
+        <v/>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
@@ -6409,6 +7018,9 @@
       <c r="I206">
         <v>200000</v>
       </c>
+      <c r="J206" t="str">
+        <v/>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
@@ -6438,6 +7050,9 @@
       <c r="I207">
         <v>200000</v>
       </c>
+      <c r="J207" t="str">
+        <v/>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
@@ -6467,6 +7082,9 @@
       <c r="I208">
         <v>200000</v>
       </c>
+      <c r="J208" t="str">
+        <v/>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
@@ -6496,6 +7114,9 @@
       <c r="I209">
         <v>200000</v>
       </c>
+      <c r="J209" t="str">
+        <v/>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
@@ -6525,6 +7146,9 @@
       <c r="I210">
         <v>200000</v>
       </c>
+      <c r="J210" t="str">
+        <v/>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
@@ -6554,6 +7178,9 @@
       <c r="I211">
         <v>200000</v>
       </c>
+      <c r="J211" t="str">
+        <v/>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
@@ -6583,6 +7210,9 @@
       <c r="I212">
         <v>200000</v>
       </c>
+      <c r="J212" t="str">
+        <v/>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
@@ -6612,6 +7242,9 @@
       <c r="I213">
         <v>200000</v>
       </c>
+      <c r="J213" t="str">
+        <v/>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
@@ -6641,6 +7274,9 @@
       <c r="I214">
         <v>200000</v>
       </c>
+      <c r="J214" t="str">
+        <v/>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
@@ -6670,6 +7306,9 @@
       <c r="I215">
         <v>200000</v>
       </c>
+      <c r="J215" t="str">
+        <v/>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
@@ -6699,6 +7338,9 @@
       <c r="I216">
         <v>200000</v>
       </c>
+      <c r="J216" t="str">
+        <v/>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
@@ -6728,6 +7370,9 @@
       <c r="I217">
         <v>200000</v>
       </c>
+      <c r="J217" t="str">
+        <v/>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
@@ -6757,6 +7402,9 @@
       <c r="I218">
         <v>200000</v>
       </c>
+      <c r="J218" t="str">
+        <v/>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
@@ -6786,6 +7434,9 @@
       <c r="I219">
         <v>200000</v>
       </c>
+      <c r="J219" t="str">
+        <v/>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
@@ -6815,6 +7466,9 @@
       <c r="I220">
         <v>200000</v>
       </c>
+      <c r="J220" t="str">
+        <v/>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
@@ -6844,6 +7498,9 @@
       <c r="I221">
         <v>200000</v>
       </c>
+      <c r="J221" t="str">
+        <v/>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
@@ -6873,6 +7530,9 @@
       <c r="I222">
         <v>200000</v>
       </c>
+      <c r="J222" t="str">
+        <v/>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
@@ -6902,6 +7562,9 @@
       <c r="I223">
         <v>200000</v>
       </c>
+      <c r="J223" t="str">
+        <v/>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
@@ -6931,6 +7594,9 @@
       <c r="I224">
         <v>200000</v>
       </c>
+      <c r="J224" t="str">
+        <v/>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
@@ -6960,6 +7626,9 @@
       <c r="I225">
         <v>200000</v>
       </c>
+      <c r="J225" t="str">
+        <v/>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
@@ -6989,6 +7658,9 @@
       <c r="I226">
         <v>200000</v>
       </c>
+      <c r="J226" t="str">
+        <v/>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
@@ -7018,6 +7690,9 @@
       <c r="I227">
         <v>200000</v>
       </c>
+      <c r="J227" t="str">
+        <v/>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
@@ -7047,6 +7722,9 @@
       <c r="I228">
         <v>200000</v>
       </c>
+      <c r="J228" t="str">
+        <v/>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
@@ -7076,6 +7754,9 @@
       <c r="I229">
         <v>200000</v>
       </c>
+      <c r="J229" t="str">
+        <v/>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
@@ -7105,6 +7786,9 @@
       <c r="I230">
         <v>200000</v>
       </c>
+      <c r="J230" t="str">
+        <v/>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
@@ -7134,6 +7818,9 @@
       <c r="I231">
         <v>200000</v>
       </c>
+      <c r="J231" t="str">
+        <v/>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
@@ -7163,6 +7850,9 @@
       <c r="I232">
         <v>200000</v>
       </c>
+      <c r="J232" t="str">
+        <v/>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
@@ -7192,6 +7882,9 @@
       <c r="I233">
         <v>200000</v>
       </c>
+      <c r="J233" t="str">
+        <v/>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
@@ -7221,6 +7914,9 @@
       <c r="I234">
         <v>200000</v>
       </c>
+      <c r="J234" t="str">
+        <v/>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
@@ -7250,6 +7946,9 @@
       <c r="I235">
         <v>200000</v>
       </c>
+      <c r="J235" t="str">
+        <v/>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
@@ -7279,6 +7978,9 @@
       <c r="I236">
         <v>200000</v>
       </c>
+      <c r="J236" t="str">
+        <v/>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
@@ -7308,6 +8010,9 @@
       <c r="I237">
         <v>200000</v>
       </c>
+      <c r="J237" t="str">
+        <v/>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
@@ -7337,6 +8042,9 @@
       <c r="I238">
         <v>200000</v>
       </c>
+      <c r="J238" t="str">
+        <v/>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
@@ -7366,6 +8074,9 @@
       <c r="I239">
         <v>200000</v>
       </c>
+      <c r="J239" t="str">
+        <v/>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
@@ -7395,6 +8106,9 @@
       <c r="I240">
         <v>200000</v>
       </c>
+      <c r="J240" t="str">
+        <v/>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="str">
@@ -7424,6 +8138,9 @@
       <c r="I241">
         <v>200000</v>
       </c>
+      <c r="J241" t="str">
+        <v/>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
@@ -7453,6 +8170,9 @@
       <c r="I242">
         <v>200000</v>
       </c>
+      <c r="J242" t="str">
+        <v/>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
@@ -7482,6 +8202,9 @@
       <c r="I243">
         <v>200000</v>
       </c>
+      <c r="J243" t="str">
+        <v/>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
@@ -7511,6 +8234,9 @@
       <c r="I244">
         <v>200000</v>
       </c>
+      <c r="J244" t="str">
+        <v/>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
@@ -7540,6 +8266,9 @@
       <c r="I245">
         <v>200000</v>
       </c>
+      <c r="J245" t="str">
+        <v/>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
@@ -7569,6 +8298,9 @@
       <c r="I246">
         <v>200000</v>
       </c>
+      <c r="J246" t="str">
+        <v/>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
@@ -7598,6 +8330,9 @@
       <c r="I247">
         <v>200000</v>
       </c>
+      <c r="J247" t="str">
+        <v/>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="str">
@@ -7627,6 +8362,9 @@
       <c r="I248">
         <v>200000</v>
       </c>
+      <c r="J248" t="str">
+        <v/>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="str">
@@ -7656,6 +8394,9 @@
       <c r="I249">
         <v>200000</v>
       </c>
+      <c r="J249" t="str">
+        <v/>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="str">
@@ -7685,6 +8426,9 @@
       <c r="I250">
         <v>200000</v>
       </c>
+      <c r="J250" t="str">
+        <v/>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="str">
@@ -7714,6 +8458,9 @@
       <c r="I251">
         <v>200000</v>
       </c>
+      <c r="J251" t="str">
+        <v/>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="str">
@@ -7743,6 +8490,9 @@
       <c r="I252">
         <v>200000</v>
       </c>
+      <c r="J252" t="str">
+        <v/>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="str">
@@ -7772,6 +8522,9 @@
       <c r="I253">
         <v>200000</v>
       </c>
+      <c r="J253" t="str">
+        <v/>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="str">
@@ -7801,6 +8554,9 @@
       <c r="I254">
         <v>200000</v>
       </c>
+      <c r="J254" t="str">
+        <v/>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="str">
@@ -7830,6 +8586,9 @@
       <c r="I255">
         <v>200000</v>
       </c>
+      <c r="J255" t="str">
+        <v/>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="str">
@@ -7859,6 +8618,9 @@
       <c r="I256">
         <v>200000</v>
       </c>
+      <c r="J256" t="str">
+        <v/>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="str">
@@ -7888,6 +8650,9 @@
       <c r="I257">
         <v>200000</v>
       </c>
+      <c r="J257" t="str">
+        <v/>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="str">
@@ -7917,6 +8682,9 @@
       <c r="I258">
         <v>200000</v>
       </c>
+      <c r="J258" t="str">
+        <v/>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="str">
@@ -7946,6 +8714,9 @@
       <c r="I259">
         <v>200000</v>
       </c>
+      <c r="J259" t="str">
+        <v/>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="str">
@@ -7975,6 +8746,9 @@
       <c r="I260">
         <v>200000</v>
       </c>
+      <c r="J260" t="str">
+        <v/>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="str">
@@ -8004,6 +8778,9 @@
       <c r="I261">
         <v>200000</v>
       </c>
+      <c r="J261" t="str">
+        <v/>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="str">
@@ -8033,6 +8810,9 @@
       <c r="I262">
         <v>200000</v>
       </c>
+      <c r="J262" t="str">
+        <v/>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="str">
@@ -8062,6 +8842,9 @@
       <c r="I263">
         <v>200000</v>
       </c>
+      <c r="J263" t="str">
+        <v/>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="str">
@@ -8088,6 +8871,9 @@
       <c r="H264" t="str">
         <v>03.01.2025</v>
       </c>
+      <c r="J264" t="str">
+        <v/>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="str">
@@ -8117,6 +8903,9 @@
       <c r="I265">
         <v>200000</v>
       </c>
+      <c r="J265" t="str">
+        <v/>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="str">
@@ -8146,6 +8935,9 @@
       <c r="I266">
         <v>200000</v>
       </c>
+      <c r="J266" t="str">
+        <v/>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="str">
@@ -8175,6 +8967,9 @@
       <c r="I267">
         <v>200000</v>
       </c>
+      <c r="J267" t="str">
+        <v/>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="str">
@@ -8204,6 +8999,9 @@
       <c r="I268">
         <v>200000</v>
       </c>
+      <c r="J268" t="str">
+        <v/>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="str">
@@ -8230,6 +9028,9 @@
       <c r="H269" t="str">
         <v>03.01.2025</v>
       </c>
+      <c r="J269" t="str">
+        <v/>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="str">
@@ -8256,6 +9057,9 @@
       <c r="H270" t="str">
         <v>03.01.2025</v>
       </c>
+      <c r="J270" t="str">
+        <v/>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="str">
@@ -8282,6 +9086,9 @@
       <c r="H271" t="str">
         <v>03.01.2025</v>
       </c>
+      <c r="J271" t="str">
+        <v/>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="str">
@@ -8308,6 +9115,9 @@
       <c r="H272" t="str">
         <v>03.01.2025</v>
       </c>
+      <c r="J272" t="str">
+        <v/>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="str">
@@ -8334,6 +9144,9 @@
       <c r="H273">
         <v>45660</v>
       </c>
+      <c r="J273" t="str">
+        <v/>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="str">
@@ -8360,6 +9173,9 @@
       <c r="H274">
         <v>45660</v>
       </c>
+      <c r="J274" t="str">
+        <v/>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="str">
@@ -8386,6 +9202,9 @@
       <c r="H275">
         <v>45660</v>
       </c>
+      <c r="J275" t="str">
+        <v/>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="str">
@@ -8412,6 +9231,9 @@
       <c r="H276" t="str">
         <v>04.01.2025</v>
       </c>
+      <c r="J276" t="str">
+        <v/>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="str">
@@ -8438,6 +9260,9 @@
       <c r="H277" t="str">
         <v>04.01.2025</v>
       </c>
+      <c r="J277" t="str">
+        <v/>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="str">
@@ -8464,6 +9289,9 @@
       <c r="H278" t="str">
         <v>04.01.2025</v>
       </c>
+      <c r="J278" t="str">
+        <v/>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="str">
@@ -8490,6 +9318,9 @@
       <c r="H279" t="str">
         <v>04.01.2025</v>
       </c>
+      <c r="J279" t="str">
+        <v/>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="str">
@@ -8516,6 +9347,9 @@
       <c r="H280" t="str">
         <v>04.01.2025</v>
       </c>
+      <c r="J280" t="str">
+        <v/>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="str">
@@ -8542,6 +9376,9 @@
       <c r="H281" t="str">
         <v>04.01.2025</v>
       </c>
+      <c r="J281" t="str">
+        <v/>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="str">
@@ -8568,6 +9405,9 @@
       <c r="H282" t="str">
         <v>04.01.2025</v>
       </c>
+      <c r="J282" t="str">
+        <v/>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="str">
@@ -8597,6 +9437,9 @@
       <c r="I283">
         <v>200000</v>
       </c>
+      <c r="J283" t="str">
+        <v/>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="str">
@@ -8626,6 +9469,9 @@
       <c r="I284">
         <v>200000</v>
       </c>
+      <c r="J284" t="str">
+        <v/>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="str">
@@ -8655,6 +9501,9 @@
       <c r="I285">
         <v>200000</v>
       </c>
+      <c r="J285" t="str">
+        <v/>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="str">
@@ -8684,6 +9533,9 @@
       <c r="I286">
         <v>200000</v>
       </c>
+      <c r="J286" t="str">
+        <v/>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="str">
@@ -8713,6 +9565,9 @@
       <c r="I287">
         <v>200000</v>
       </c>
+      <c r="J287" t="str">
+        <v/>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="str">
@@ -8742,6 +9597,9 @@
       <c r="I288">
         <v>200000</v>
       </c>
+      <c r="J288" t="str">
+        <v/>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="str">
@@ -8771,6 +9629,9 @@
       <c r="I289">
         <v>200000</v>
       </c>
+      <c r="J289" t="str">
+        <v/>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="str">
@@ -8800,6 +9661,9 @@
       <c r="I290">
         <v>200000</v>
       </c>
+      <c r="J290" t="str">
+        <v/>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="str">
@@ -8826,6 +9690,9 @@
       <c r="H291" t="str">
         <v>05.01.2025</v>
       </c>
+      <c r="J291" t="str">
+        <v/>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="str">
@@ -8852,6 +9719,9 @@
       <c r="H292" t="str">
         <v>05.01.2025</v>
       </c>
+      <c r="J292" t="str">
+        <v/>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="str">
@@ -8878,6 +9748,9 @@
       <c r="H293" t="str">
         <v>05.01.2025</v>
       </c>
+      <c r="J293" t="str">
+        <v/>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="str">
@@ -8904,6 +9777,9 @@
       <c r="H294" t="str">
         <v>06.01.2025</v>
       </c>
+      <c r="J294" t="str">
+        <v/>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="str">
@@ -8930,6 +9806,9 @@
       <c r="H295" t="str">
         <v>06.01.2025</v>
       </c>
+      <c r="J295" t="str">
+        <v/>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="str">
@@ -8956,6 +9835,9 @@
       <c r="H296" t="str">
         <v>06.01.2025</v>
       </c>
+      <c r="J296" t="str">
+        <v/>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="str">
@@ -8982,6 +9864,9 @@
       <c r="H297" t="str">
         <v>06.01.2025</v>
       </c>
+      <c r="J297" t="str">
+        <v/>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="str">
@@ -9008,6 +9893,9 @@
       <c r="H298" t="str">
         <v>06.01.2025</v>
       </c>
+      <c r="J298" t="str">
+        <v/>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="str">
@@ -9034,6 +9922,9 @@
       <c r="H299" t="str">
         <v>06.01.2025</v>
       </c>
+      <c r="J299" t="str">
+        <v/>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="str">
@@ -9060,6 +9951,9 @@
       <c r="H300" t="str">
         <v>06.01.2025</v>
       </c>
+      <c r="J300" t="str">
+        <v/>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="str">
@@ -9086,6 +9980,9 @@
       <c r="H301" t="str">
         <v>06.01.2025</v>
       </c>
+      <c r="J301" t="str">
+        <v/>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="str">
@@ -9112,6 +10009,9 @@
       <c r="H302" t="str">
         <v>06.01.2025</v>
       </c>
+      <c r="J302" t="str">
+        <v/>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="str">
@@ -9138,6 +10038,9 @@
       <c r="H303" t="str">
         <v>06.01.2025</v>
       </c>
+      <c r="J303" t="str">
+        <v/>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="str">
@@ -9164,6 +10067,9 @@
       <c r="H304" t="str">
         <v>06.01.2025</v>
       </c>
+      <c r="J304" t="str">
+        <v/>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="str">
@@ -9190,6 +10096,9 @@
       <c r="H305" t="str">
         <v>06.01.2025</v>
       </c>
+      <c r="J305" t="str">
+        <v/>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="str">
@@ -9216,6 +10125,9 @@
       <c r="H306" t="str">
         <v>06.01.2025</v>
       </c>
+      <c r="J306" t="str">
+        <v/>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="str">
@@ -9242,6 +10154,9 @@
       <c r="H307" t="str">
         <v>06.01.2025</v>
       </c>
+      <c r="J307" t="str">
+        <v/>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="str">
@@ -9268,6 +10183,9 @@
       <c r="H308" t="str">
         <v>06.01.2025</v>
       </c>
+      <c r="J308" t="str">
+        <v/>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="str">
@@ -9294,6 +10212,9 @@
       <c r="H309" t="str">
         <v>06.01.2025</v>
       </c>
+      <c r="J309" t="str">
+        <v/>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="str">
@@ -9320,6 +10241,9 @@
       <c r="H310" t="str">
         <v>06.01.2025</v>
       </c>
+      <c r="J310" t="str">
+        <v/>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="str">
@@ -9346,6 +10270,9 @@
       <c r="H311" t="str">
         <v>06.01.2025</v>
       </c>
+      <c r="J311" t="str">
+        <v/>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="str">
@@ -9372,6 +10299,9 @@
       <c r="H312" t="str">
         <v>06.01.2025</v>
       </c>
+      <c r="J312" t="str">
+        <v/>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="str">
@@ -9398,6 +10328,9 @@
       <c r="H313">
         <v>45663</v>
       </c>
+      <c r="J313" t="str">
+        <v/>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="str">
@@ -9424,6 +10357,9 @@
       <c r="H314">
         <v>45663</v>
       </c>
+      <c r="J314" t="str">
+        <v/>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="str">
@@ -9450,6 +10386,9 @@
       <c r="H315" t="str">
         <v>07.01.2025</v>
       </c>
+      <c r="J315" t="str">
+        <v/>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="str">
@@ -9476,6 +10415,9 @@
       <c r="H316" t="str">
         <v>07.01.2025</v>
       </c>
+      <c r="J316" t="str">
+        <v/>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="str">
@@ -9502,6 +10444,9 @@
       <c r="H317" t="str">
         <v>07.01.2025</v>
       </c>
+      <c r="J317" t="str">
+        <v/>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="str">
@@ -9531,6 +10476,9 @@
       <c r="I318">
         <v>200000</v>
       </c>
+      <c r="J318" t="str">
+        <v/>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="str">
@@ -9560,6 +10508,9 @@
       <c r="I319">
         <v>200000</v>
       </c>
+      <c r="J319" t="str">
+        <v/>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="str">
@@ -9589,6 +10540,9 @@
       <c r="I320">
         <v>200000</v>
       </c>
+      <c r="J320" t="str">
+        <v/>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="str">
@@ -9618,6 +10572,9 @@
       <c r="I321">
         <v>200000</v>
       </c>
+      <c r="J321" t="str">
+        <v/>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="str">
@@ -9644,6 +10601,9 @@
       <c r="H322">
         <v>45664</v>
       </c>
+      <c r="J322" t="str">
+        <v/>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="str">
@@ -9670,6 +10630,9 @@
       <c r="H323" t="str">
         <v>08.01.2025</v>
       </c>
+      <c r="J323" t="str">
+        <v/>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="str">
@@ -9696,6 +10659,9 @@
       <c r="H324" t="str">
         <v>08.01.2025</v>
       </c>
+      <c r="J324" t="str">
+        <v/>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="str">
@@ -9722,6 +10688,9 @@
       <c r="H325" t="str">
         <v>08.01.2025</v>
       </c>
+      <c r="J325" t="str">
+        <v/>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="str">
@@ -9748,6 +10717,9 @@
       <c r="H326" t="str">
         <v>08.01.2025</v>
       </c>
+      <c r="J326" t="str">
+        <v/>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="str">
@@ -9774,6 +10746,9 @@
       <c r="H327" t="str">
         <v>08.01.2025</v>
       </c>
+      <c r="J327" t="str">
+        <v/>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="str">
@@ -9803,6 +10778,9 @@
       <c r="I328">
         <v>200000</v>
       </c>
+      <c r="J328" t="str">
+        <v/>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="str">
@@ -9832,6 +10810,9 @@
       <c r="I329">
         <v>200000</v>
       </c>
+      <c r="J329" t="str">
+        <v/>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="str">
@@ -9861,6 +10842,9 @@
       <c r="I330">
         <v>200000</v>
       </c>
+      <c r="J330" t="str">
+        <v>выполнил</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="str">
@@ -9890,6 +10874,9 @@
       <c r="I331">
         <v>200000</v>
       </c>
+      <c r="J331" t="str">
+        <v/>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="str">
@@ -9919,6 +10906,9 @@
       <c r="I332">
         <v>200000</v>
       </c>
+      <c r="J332" t="str">
+        <v/>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="str">
@@ -9948,6 +10938,9 @@
       <c r="I333">
         <v>200000</v>
       </c>
+      <c r="J333" t="str">
+        <v/>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="str">
@@ -9977,6 +10970,9 @@
       <c r="I334">
         <v>200000</v>
       </c>
+      <c r="J334" t="str">
+        <v/>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="str">
@@ -10006,6 +11002,9 @@
       <c r="I335">
         <v>200000</v>
       </c>
+      <c r="J335" t="str">
+        <v/>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="str">
@@ -10035,6 +11034,9 @@
       <c r="I336">
         <v>200000</v>
       </c>
+      <c r="J336" t="str">
+        <v/>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="str">
@@ -10061,6 +11063,9 @@
       <c r="H337" t="str">
         <v>09.01.2025</v>
       </c>
+      <c r="J337" t="str">
+        <v/>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="str">
@@ -10087,6 +11092,9 @@
       <c r="H338">
         <v>45666</v>
       </c>
+      <c r="J338" t="str">
+        <v/>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="str">
@@ -10113,6 +11121,9 @@
       <c r="H339">
         <v>45667</v>
       </c>
+      <c r="J339" t="str">
+        <v/>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="str">
@@ -10139,6 +11150,9 @@
       <c r="H340" t="str">
         <v>10.01.2025</v>
       </c>
+      <c r="J340" t="str">
+        <v/>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="str">
@@ -10165,6 +11179,9 @@
       <c r="H341" t="str">
         <v>10.01.2025</v>
       </c>
+      <c r="J341" t="str">
+        <v/>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="str">
@@ -10191,6 +11208,9 @@
       <c r="H342" t="str">
         <v>10.01.2025</v>
       </c>
+      <c r="J342" t="str">
+        <v/>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="str">
@@ -10217,6 +11237,9 @@
       <c r="H343" t="str">
         <v>10.01.2025</v>
       </c>
+      <c r="J343" t="str">
+        <v/>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="str">
@@ -10243,6 +11266,9 @@
       <c r="H344" t="str">
         <v>10.01.2025</v>
       </c>
+      <c r="J344" t="str">
+        <v/>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="str">
@@ -10269,6 +11295,9 @@
       <c r="H345" t="str">
         <v>10.01.2025</v>
       </c>
+      <c r="J345" t="str">
+        <v/>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="str">
@@ -10295,6 +11324,9 @@
       <c r="H346" t="str">
         <v>10.01.2025</v>
       </c>
+      <c r="J346" t="str">
+        <v/>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="str">
@@ -10321,6 +11353,9 @@
       <c r="H347" t="str">
         <v>10.01.2025</v>
       </c>
+      <c r="J347" t="str">
+        <v/>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="str">
@@ -10347,6 +11382,9 @@
       <c r="H348" t="str">
         <v>10.01.2025</v>
       </c>
+      <c r="J348" t="str">
+        <v/>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="str">
@@ -10373,6 +11411,9 @@
       <c r="H349" t="str">
         <v>10.01.2025</v>
       </c>
+      <c r="J349" t="str">
+        <v/>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="str">
@@ -10399,6 +11440,9 @@
       <c r="H350">
         <v>45667</v>
       </c>
+      <c r="J350" t="str">
+        <v/>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="str">
@@ -10425,6 +11469,9 @@
       <c r="H351" t="str">
         <v>11.01.2025</v>
       </c>
+      <c r="J351" t="str">
+        <v/>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="str">
@@ -10451,6 +11498,9 @@
       <c r="H352" t="str">
         <v>11.01.2025</v>
       </c>
+      <c r="J352" t="str">
+        <v/>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="str">
@@ -10477,6 +11527,9 @@
       <c r="H353" t="str">
         <v>11.01.2025</v>
       </c>
+      <c r="J353" t="str">
+        <v/>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="str">
@@ -10503,6 +11556,9 @@
       <c r="H354" t="str">
         <v>11.01.2025</v>
       </c>
+      <c r="J354" t="str">
+        <v/>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="str">
@@ -10529,6 +11585,9 @@
       <c r="H355" t="str">
         <v>13.01.2025</v>
       </c>
+      <c r="J355" t="str">
+        <v/>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="str">
@@ -10555,6 +11614,9 @@
       <c r="H356" t="str">
         <v>13.01.2025</v>
       </c>
+      <c r="J356" t="str">
+        <v/>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="str">
@@ -10581,6 +11643,9 @@
       <c r="H357" t="str">
         <v>13.01.2025</v>
       </c>
+      <c r="J357" t="str">
+        <v/>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="str">
@@ -10607,6 +11672,9 @@
       <c r="H358" t="str">
         <v>13.01.2025</v>
       </c>
+      <c r="J358" t="str">
+        <v/>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="str">
@@ -10636,6 +11704,9 @@
       <c r="I359">
         <v>200000</v>
       </c>
+      <c r="J359" t="str">
+        <v/>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="str">
@@ -10665,6 +11736,9 @@
       <c r="I360">
         <v>200000</v>
       </c>
+      <c r="J360" t="str">
+        <v/>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="str">
@@ -10694,6 +11768,9 @@
       <c r="I361">
         <v>200000</v>
       </c>
+      <c r="J361" t="str">
+        <v/>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="str">
@@ -10723,6 +11800,9 @@
       <c r="I362">
         <v>200000</v>
       </c>
+      <c r="J362" t="str">
+        <v/>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="str">
@@ -10752,6 +11832,9 @@
       <c r="I363">
         <v>200000</v>
       </c>
+      <c r="J363" t="str">
+        <v/>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="str">
@@ -10781,6 +11864,9 @@
       <c r="I364">
         <v>200000</v>
       </c>
+      <c r="J364" t="str">
+        <v/>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="str">
@@ -10810,6 +11896,9 @@
       <c r="I365">
         <v>200000</v>
       </c>
+      <c r="J365" t="str">
+        <v/>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="str">
@@ -10836,6 +11925,9 @@
       <c r="H366" t="str">
         <v>14.01.2025</v>
       </c>
+      <c r="J366" t="str">
+        <v/>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="str">
@@ -10862,6 +11954,9 @@
       <c r="H367" t="str">
         <v>14.01.2025</v>
       </c>
+      <c r="J367" t="str">
+        <v/>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="str">
@@ -10888,6 +11983,9 @@
       <c r="H368" t="str">
         <v>14.01.2025</v>
       </c>
+      <c r="J368" t="str">
+        <v/>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="str">
@@ -10914,6 +12012,9 @@
       <c r="H369">
         <v>45671</v>
       </c>
+      <c r="J369" t="str">
+        <v/>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="str">
@@ -10940,6 +12041,9 @@
       <c r="H370" t="str">
         <v>15.01.2025</v>
       </c>
+      <c r="J370" t="str">
+        <v/>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="str">
@@ -10966,6 +12070,9 @@
       <c r="H371" t="str">
         <v>15.01.2025</v>
       </c>
+      <c r="J371" t="str">
+        <v/>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="str">
@@ -10992,6 +12099,9 @@
       <c r="H372" t="str">
         <v>15.01.2025</v>
       </c>
+      <c r="J372" t="str">
+        <v/>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="str">
@@ -11018,6 +12128,9 @@
       <c r="H373" t="str">
         <v>15.01.2025</v>
       </c>
+      <c r="J373" t="str">
+        <v/>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="str">
@@ -11044,6 +12157,9 @@
       <c r="H374" t="str">
         <v>15.01.2025</v>
       </c>
+      <c r="J374" t="str">
+        <v/>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="str">
@@ -11070,6 +12186,9 @@
       <c r="H375" t="str">
         <v>15.01.2025</v>
       </c>
+      <c r="J375" t="str">
+        <v/>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="str">
@@ -11096,6 +12215,9 @@
       <c r="H376" t="str">
         <v>15.01.2025</v>
       </c>
+      <c r="J376" t="str">
+        <v/>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="str">
@@ -11125,6 +12247,9 @@
       <c r="I377">
         <v>200000</v>
       </c>
+      <c r="J377" t="str">
+        <v/>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="str">
@@ -11154,6 +12279,9 @@
       <c r="I378">
         <v>200000</v>
       </c>
+      <c r="J378" t="str">
+        <v/>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="str">
@@ -11183,6 +12311,9 @@
       <c r="I379">
         <v>200000</v>
       </c>
+      <c r="J379" t="str">
+        <v/>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="str">
@@ -11212,6 +12343,9 @@
       <c r="I380">
         <v>200000</v>
       </c>
+      <c r="J380" t="str">
+        <v/>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="str">
@@ -11241,6 +12375,9 @@
       <c r="I381">
         <v>200000</v>
       </c>
+      <c r="J381" t="str">
+        <v/>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="str">
@@ -11270,6 +12407,9 @@
       <c r="I382">
         <v>200000</v>
       </c>
+      <c r="J382" t="str">
+        <v/>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="str">
@@ -11299,6 +12439,9 @@
       <c r="I383">
         <v>200000</v>
       </c>
+      <c r="J383" t="str">
+        <v/>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="str">
@@ -11328,6 +12471,9 @@
       <c r="I384">
         <v>200000</v>
       </c>
+      <c r="J384" t="str">
+        <v/>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="str">
@@ -11357,6 +12503,9 @@
       <c r="I385">
         <v>200000</v>
       </c>
+      <c r="J385" t="str">
+        <v/>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="str">
@@ -11386,6 +12535,9 @@
       <c r="I386">
         <v>200000</v>
       </c>
+      <c r="J386" t="str">
+        <v/>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="str">
@@ -11412,6 +12564,9 @@
       <c r="H387" t="str">
         <v>16.01.2025</v>
       </c>
+      <c r="J387" t="str">
+        <v/>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="str">
@@ -11438,6 +12593,9 @@
       <c r="H388" t="str">
         <v>16.01.2025</v>
       </c>
+      <c r="J388" t="str">
+        <v/>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="str">
@@ -11467,6 +12625,9 @@
       <c r="I389">
         <v>200000</v>
       </c>
+      <c r="J389" t="str">
+        <v/>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="str">
@@ -11496,6 +12657,9 @@
       <c r="I390">
         <v>200000</v>
       </c>
+      <c r="J390" t="str">
+        <v/>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="str">
@@ -11525,6 +12689,9 @@
       <c r="I391">
         <v>200000</v>
       </c>
+      <c r="J391" t="str">
+        <v/>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="str">
@@ -11554,6 +12721,9 @@
       <c r="I392">
         <v>200000</v>
       </c>
+      <c r="J392" t="str">
+        <v/>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="str">
@@ -11580,6 +12750,9 @@
       <c r="H393" t="str">
         <v>17.01.2025</v>
       </c>
+      <c r="J393" t="str">
+        <v/>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="str">
@@ -11606,6 +12779,9 @@
       <c r="H394" t="str">
         <v>17.01.2025</v>
       </c>
+      <c r="J394" t="str">
+        <v/>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="str">
@@ -11632,6 +12808,9 @@
       <c r="H395" t="str">
         <v>17.01.2025</v>
       </c>
+      <c r="J395" t="str">
+        <v/>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="str">
@@ -11658,6 +12837,9 @@
       <c r="H396" t="str">
         <v>17.01.2025</v>
       </c>
+      <c r="J396" t="str">
+        <v/>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="str">
@@ -11684,6 +12866,9 @@
       <c r="H397" t="str">
         <v>17.01.2025</v>
       </c>
+      <c r="J397" t="str">
+        <v/>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="str">
@@ -11710,6 +12895,9 @@
       <c r="H398" t="str">
         <v>17.01.2025</v>
       </c>
+      <c r="J398" t="str">
+        <v/>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="str">
@@ -11736,6 +12924,9 @@
       <c r="H399" t="str">
         <v>17.01.2025</v>
       </c>
+      <c r="J399" t="str">
+        <v/>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="str">
@@ -11762,6 +12953,9 @@
       <c r="H400" t="str">
         <v>17.01.2025</v>
       </c>
+      <c r="J400" t="str">
+        <v/>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="str">
@@ -11788,6 +12982,9 @@
       <c r="H401">
         <v>45674</v>
       </c>
+      <c r="J401" t="str">
+        <v/>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="str">
@@ -11814,6 +13011,9 @@
       <c r="H402">
         <v>45674</v>
       </c>
+      <c r="J402" t="str">
+        <v/>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="str">
@@ -11840,6 +13040,9 @@
       <c r="H403" t="str">
         <v>18.01.2025</v>
       </c>
+      <c r="J403" t="str">
+        <v/>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="str">
@@ -11866,6 +13069,9 @@
       <c r="H404" t="str">
         <v>18.01.2025</v>
       </c>
+      <c r="J404" t="str">
+        <v/>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="str">
@@ -11892,6 +13098,9 @@
       <c r="H405" t="str">
         <v>18.01.2025</v>
       </c>
+      <c r="J405" t="str">
+        <v/>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="str">
@@ -11918,6 +13127,9 @@
       <c r="H406" t="str">
         <v>18.01.2025</v>
       </c>
+      <c r="J406" t="str">
+        <v/>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="str">
@@ -11944,6 +13156,9 @@
       <c r="H407" t="str">
         <v>18.01.2025</v>
       </c>
+      <c r="J407" t="str">
+        <v/>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="str">
@@ -11970,6 +13185,9 @@
       <c r="H408" t="str">
         <v>18.01.2025</v>
       </c>
+      <c r="J408" t="str">
+        <v/>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="str">
@@ -11996,6 +13214,9 @@
       <c r="H409" t="str">
         <v>18.01.2025</v>
       </c>
+      <c r="J409" t="str">
+        <v/>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="str">
@@ -12022,6 +13243,9 @@
       <c r="H410" t="str">
         <v>18.01.2025</v>
       </c>
+      <c r="J410" t="str">
+        <v/>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="str">
@@ -12048,6 +13272,9 @@
       <c r="H411" t="str">
         <v>18.01.2025</v>
       </c>
+      <c r="J411" t="str">
+        <v/>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="str">
@@ -12074,6 +13301,9 @@
       <c r="H412" t="str">
         <v>18.01.2025</v>
       </c>
+      <c r="J412" t="str">
+        <v/>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="str">
@@ -12100,6 +13330,9 @@
       <c r="H413" t="str">
         <v>19.01.2025</v>
       </c>
+      <c r="J413" t="str">
+        <v/>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="str">
@@ -12126,6 +13359,9 @@
       <c r="H414" t="str">
         <v>19.01.2025</v>
       </c>
+      <c r="J414" t="str">
+        <v/>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="str">
@@ -12152,6 +13388,9 @@
       <c r="H415" t="str">
         <v>19.01.2025</v>
       </c>
+      <c r="J415" t="str">
+        <v/>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="str">
@@ -12178,6 +13417,9 @@
       <c r="H416" t="str">
         <v>19.01.2025</v>
       </c>
+      <c r="J416" t="str">
+        <v/>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="str">
@@ -12204,6 +13446,9 @@
       <c r="H417" t="str">
         <v>19.01.2025</v>
       </c>
+      <c r="J417" t="str">
+        <v/>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="str">
@@ -12230,6 +13475,9 @@
       <c r="H418" t="str">
         <v>19.01.2025</v>
       </c>
+      <c r="J418" t="str">
+        <v/>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="str">
@@ -12256,6 +13504,9 @@
       <c r="H419" t="str">
         <v>19.01.2025</v>
       </c>
+      <c r="J419" t="str">
+        <v/>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="str">
@@ -12282,6 +13533,9 @@
       <c r="H420" t="str">
         <v>19.01.2025</v>
       </c>
+      <c r="J420" t="str">
+        <v/>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="str">
@@ -12308,6 +13562,9 @@
       <c r="H421" t="str">
         <v>19.01.2025</v>
       </c>
+      <c r="J421" t="str">
+        <v/>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="str">
@@ -12337,6 +13594,9 @@
       <c r="I422">
         <v>200000</v>
       </c>
+      <c r="J422" t="str">
+        <v/>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="str">
@@ -12366,6 +13626,9 @@
       <c r="I423">
         <v>200000</v>
       </c>
+      <c r="J423" t="str">
+        <v/>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="str">
@@ -12395,6 +13658,9 @@
       <c r="I424">
         <v>200000</v>
       </c>
+      <c r="J424" t="str">
+        <v/>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="str">
@@ -12424,6 +13690,9 @@
       <c r="I425">
         <v>200000</v>
       </c>
+      <c r="J425" t="str">
+        <v/>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="str">
@@ -12453,6 +13722,9 @@
       <c r="I426">
         <v>200000</v>
       </c>
+      <c r="J426" t="str">
+        <v/>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="str">
@@ -12482,6 +13754,9 @@
       <c r="I427">
         <v>200000</v>
       </c>
+      <c r="J427" t="str">
+        <v/>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="str">
@@ -12511,6 +13786,9 @@
       <c r="I428">
         <v>200000</v>
       </c>
+      <c r="J428" t="str">
+        <v/>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="str">
@@ -12540,6 +13818,9 @@
       <c r="I429">
         <v>200000</v>
       </c>
+      <c r="J429" t="str">
+        <v/>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="str">
@@ -12569,6 +13850,9 @@
       <c r="I430">
         <v>200000</v>
       </c>
+      <c r="J430" t="str">
+        <v/>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="str">
@@ -12598,6 +13882,9 @@
       <c r="I431">
         <v>200000</v>
       </c>
+      <c r="J431" t="str">
+        <v/>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="str">
@@ -12627,6 +13914,9 @@
       <c r="I432">
         <v>200000</v>
       </c>
+      <c r="J432" t="str">
+        <v/>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="str">
@@ -12656,6 +13946,9 @@
       <c r="I433">
         <v>200000</v>
       </c>
+      <c r="J433" t="str">
+        <v/>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="str">
@@ -12685,6 +13978,9 @@
       <c r="I434">
         <v>200000</v>
       </c>
+      <c r="J434" t="str">
+        <v/>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="str">
@@ -12714,6 +14010,9 @@
       <c r="I435">
         <v>200000</v>
       </c>
+      <c r="J435" t="str">
+        <v/>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="str">
@@ -12743,6 +14042,9 @@
       <c r="I436">
         <v>200000</v>
       </c>
+      <c r="J436" t="str">
+        <v/>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="str">
@@ -12772,6 +14074,9 @@
       <c r="I437">
         <v>200000</v>
       </c>
+      <c r="J437" t="str">
+        <v/>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="str">
@@ -12801,6 +14106,9 @@
       <c r="I438">
         <v>200000</v>
       </c>
+      <c r="J438" t="str">
+        <v/>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="str">
@@ -12830,6 +14138,9 @@
       <c r="I439">
         <v>200000</v>
       </c>
+      <c r="J439" t="str">
+        <v/>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="str">
@@ -12859,6 +14170,9 @@
       <c r="I440">
         <v>200000</v>
       </c>
+      <c r="J440" t="str">
+        <v/>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="str">
@@ -12888,6 +14202,9 @@
       <c r="I441">
         <v>200000</v>
       </c>
+      <c r="J441" t="str">
+        <v/>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="str">
@@ -12917,6 +14234,9 @@
       <c r="I442">
         <v>200000</v>
       </c>
+      <c r="J442" t="str">
+        <v/>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="str">
@@ -12946,6 +14266,9 @@
       <c r="I443">
         <v>200000</v>
       </c>
+      <c r="J443" t="str">
+        <v/>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="str">
@@ -12975,6 +14298,9 @@
       <c r="I444">
         <v>200000</v>
       </c>
+      <c r="J444" t="str">
+        <v/>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="str">
@@ -13004,6 +14330,9 @@
       <c r="I445">
         <v>200000</v>
       </c>
+      <c r="J445" t="str">
+        <v/>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="str">
@@ -13033,6 +14362,9 @@
       <c r="I446">
         <v>200000</v>
       </c>
+      <c r="J446" t="str">
+        <v/>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="str">
@@ -13062,6 +14394,9 @@
       <c r="I447">
         <v>200000</v>
       </c>
+      <c r="J447" t="str">
+        <v/>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="str">
@@ -13091,6 +14426,9 @@
       <c r="I448">
         <v>200000</v>
       </c>
+      <c r="J448" t="str">
+        <v/>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="str">
@@ -13120,6 +14458,9 @@
       <c r="I449">
         <v>200000</v>
       </c>
+      <c r="J449" t="str">
+        <v/>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="str">
@@ -13149,6 +14490,9 @@
       <c r="I450">
         <v>200000</v>
       </c>
+      <c r="J450" t="str">
+        <v/>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="str">
@@ -13178,6 +14522,9 @@
       <c r="I451">
         <v>200000</v>
       </c>
+      <c r="J451" t="str">
+        <v/>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="str">
@@ -13207,6 +14554,9 @@
       <c r="I452">
         <v>200000</v>
       </c>
+      <c r="J452" t="str">
+        <v/>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="str">
@@ -13236,6 +14586,9 @@
       <c r="I453">
         <v>200000</v>
       </c>
+      <c r="J453" t="str">
+        <v/>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="str">
@@ -13265,6 +14618,9 @@
       <c r="I454">
         <v>200000</v>
       </c>
+      <c r="J454" t="str">
+        <v/>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="str">
@@ -13294,6 +14650,9 @@
       <c r="I455">
         <v>200000</v>
       </c>
+      <c r="J455" t="str">
+        <v/>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="str">
@@ -13323,6 +14682,9 @@
       <c r="I456">
         <v>200000</v>
       </c>
+      <c r="J456" t="str">
+        <v/>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="str">
@@ -13352,6 +14714,9 @@
       <c r="I457">
         <v>200000</v>
       </c>
+      <c r="J457" t="str">
+        <v/>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="str">
@@ -13381,6 +14746,9 @@
       <c r="I458">
         <v>200000</v>
       </c>
+      <c r="J458" t="str">
+        <v/>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="str">
@@ -13410,6 +14778,9 @@
       <c r="I459">
         <v>200000</v>
       </c>
+      <c r="J459" t="str">
+        <v/>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="str">
@@ -13439,6 +14810,9 @@
       <c r="I460">
         <v>200000</v>
       </c>
+      <c r="J460" t="str">
+        <v/>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="str">
@@ -13468,6 +14842,9 @@
       <c r="I461">
         <v>200000</v>
       </c>
+      <c r="J461" t="str">
+        <v/>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="str">
@@ -13497,6 +14874,9 @@
       <c r="I462">
         <v>200000</v>
       </c>
+      <c r="J462" t="str">
+        <v/>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="str">
@@ -13526,6 +14906,9 @@
       <c r="I463">
         <v>200000</v>
       </c>
+      <c r="J463" t="str">
+        <v/>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="str">
@@ -13555,6 +14938,9 @@
       <c r="I464">
         <v>200000</v>
       </c>
+      <c r="J464" t="str">
+        <v/>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="str">
@@ -13584,6 +14970,9 @@
       <c r="I465">
         <v>200000</v>
       </c>
+      <c r="J465" t="str">
+        <v/>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="str">
@@ -13613,6 +15002,9 @@
       <c r="I466">
         <v>200000</v>
       </c>
+      <c r="J466" t="str">
+        <v/>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="str">
@@ -13642,6 +15034,9 @@
       <c r="I467">
         <v>200000</v>
       </c>
+      <c r="J467" t="str">
+        <v/>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="str">
@@ -13671,6 +15066,9 @@
       <c r="I468">
         <v>200000</v>
       </c>
+      <c r="J468" t="str">
+        <v/>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="str">
@@ -13700,6 +15098,9 @@
       <c r="I469">
         <v>200000</v>
       </c>
+      <c r="J469" t="str">
+        <v/>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="str">
@@ -13729,6 +15130,9 @@
       <c r="I470">
         <v>200000</v>
       </c>
+      <c r="J470" t="str">
+        <v/>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="str">
@@ -13758,6 +15162,9 @@
       <c r="I471">
         <v>200000</v>
       </c>
+      <c r="J471" t="str">
+        <v/>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="str">
@@ -13787,6 +15194,9 @@
       <c r="I472">
         <v>200000</v>
       </c>
+      <c r="J472" t="str">
+        <v/>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="str">
@@ -13816,6 +15226,9 @@
       <c r="I473">
         <v>200000</v>
       </c>
+      <c r="J473" t="str">
+        <v/>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="str">
@@ -13845,6 +15258,9 @@
       <c r="I474">
         <v>200000</v>
       </c>
+      <c r="J474" t="str">
+        <v/>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="str">
@@ -13874,6 +15290,9 @@
       <c r="I475">
         <v>200000</v>
       </c>
+      <c r="J475" t="str">
+        <v/>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="str">
@@ -13903,6 +15322,9 @@
       <c r="I476">
         <v>200000</v>
       </c>
+      <c r="J476" t="str">
+        <v/>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="str">
@@ -13932,6 +15354,9 @@
       <c r="I477">
         <v>200000</v>
       </c>
+      <c r="J477" t="str">
+        <v/>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="str">
@@ -13961,6 +15386,9 @@
       <c r="I478">
         <v>200000</v>
       </c>
+      <c r="J478" t="str">
+        <v/>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="str">
@@ -13990,6 +15418,9 @@
       <c r="I479">
         <v>200000</v>
       </c>
+      <c r="J479" t="str">
+        <v/>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="str">
@@ -14019,6 +15450,9 @@
       <c r="I480">
         <v>200000</v>
       </c>
+      <c r="J480" t="str">
+        <v/>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="str">
@@ -14048,6 +15482,9 @@
       <c r="I481">
         <v>200000</v>
       </c>
+      <c r="J481" t="str">
+        <v/>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="str">
@@ -14077,6 +15514,9 @@
       <c r="I482">
         <v>200000</v>
       </c>
+      <c r="J482" t="str">
+        <v/>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="str">
@@ -14106,6 +15546,9 @@
       <c r="I483">
         <v>200000</v>
       </c>
+      <c r="J483" t="str">
+        <v/>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="str">
@@ -14135,6 +15578,9 @@
       <c r="I484">
         <v>200000</v>
       </c>
+      <c r="J484" t="str">
+        <v/>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="str">
@@ -14164,6 +15610,9 @@
       <c r="I485">
         <v>200000</v>
       </c>
+      <c r="J485" t="str">
+        <v/>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="str">
@@ -14193,6 +15642,9 @@
       <c r="I486">
         <v>200000</v>
       </c>
+      <c r="J486" t="str">
+        <v/>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="str">
@@ -14222,6 +15674,9 @@
       <c r="I487">
         <v>200000</v>
       </c>
+      <c r="J487" t="str">
+        <v/>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="str">
@@ -14251,6 +15706,9 @@
       <c r="I488">
         <v>200000</v>
       </c>
+      <c r="J488" t="str">
+        <v/>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="str">
@@ -14280,6 +15738,9 @@
       <c r="I489">
         <v>200000</v>
       </c>
+      <c r="J489" t="str">
+        <v/>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="str">
@@ -14309,6 +15770,9 @@
       <c r="I490">
         <v>200000</v>
       </c>
+      <c r="J490" t="str">
+        <v/>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="str">
@@ -14338,6 +15802,9 @@
       <c r="I491">
         <v>200000</v>
       </c>
+      <c r="J491" t="str">
+        <v/>
+      </c>
     </row>
     <row r="492">
       <c r="A492" t="str">
@@ -14367,6 +15834,9 @@
       <c r="I492">
         <v>200000</v>
       </c>
+      <c r="J492" t="str">
+        <v/>
+      </c>
     </row>
     <row r="493">
       <c r="A493" t="str">
@@ -14396,6 +15866,9 @@
       <c r="I493">
         <v>200000</v>
       </c>
+      <c r="J493" t="str">
+        <v/>
+      </c>
     </row>
     <row r="494">
       <c r="A494" t="str">
@@ -14425,6 +15898,9 @@
       <c r="I494">
         <v>200000</v>
       </c>
+      <c r="J494" t="str">
+        <v/>
+      </c>
     </row>
     <row r="495">
       <c r="A495" t="str">
@@ -14454,6 +15930,9 @@
       <c r="I495">
         <v>200000</v>
       </c>
+      <c r="J495" t="str">
+        <v/>
+      </c>
     </row>
     <row r="496">
       <c r="A496" t="str">
@@ -14483,6 +15962,9 @@
       <c r="I496">
         <v>200000</v>
       </c>
+      <c r="J496" t="str">
+        <v/>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="str">
@@ -14512,6 +15994,9 @@
       <c r="I497">
         <v>200000</v>
       </c>
+      <c r="J497" t="str">
+        <v/>
+      </c>
     </row>
     <row r="498">
       <c r="A498" t="str">
@@ -14541,6 +16026,9 @@
       <c r="I498">
         <v>200000</v>
       </c>
+      <c r="J498" t="str">
+        <v/>
+      </c>
     </row>
     <row r="499">
       <c r="A499" t="str">
@@ -14570,6 +16058,9 @@
       <c r="I499">
         <v>200000</v>
       </c>
+      <c r="J499" t="str">
+        <v/>
+      </c>
     </row>
     <row r="500">
       <c r="A500" t="str">
@@ -14599,6 +16090,9 @@
       <c r="I500">
         <v>200000</v>
       </c>
+      <c r="J500" t="str">
+        <v/>
+      </c>
     </row>
     <row r="501">
       <c r="A501" t="str">
@@ -14628,6 +16122,9 @@
       <c r="I501">
         <v>200000</v>
       </c>
+      <c r="J501" t="str">
+        <v/>
+      </c>
     </row>
     <row r="502">
       <c r="A502" t="str">
@@ -14657,6 +16154,9 @@
       <c r="I502">
         <v>200000</v>
       </c>
+      <c r="J502" t="str">
+        <v/>
+      </c>
     </row>
     <row r="503">
       <c r="A503" t="str">
@@ -14686,6 +16186,9 @@
       <c r="I503">
         <v>200000</v>
       </c>
+      <c r="J503" t="str">
+        <v/>
+      </c>
     </row>
     <row r="504">
       <c r="A504" t="str">
@@ -14715,6 +16218,9 @@
       <c r="I504">
         <v>200000</v>
       </c>
+      <c r="J504" t="str">
+        <v/>
+      </c>
     </row>
     <row r="505">
       <c r="A505" t="str">
@@ -14744,6 +16250,9 @@
       <c r="I505">
         <v>200000</v>
       </c>
+      <c r="J505" t="str">
+        <v/>
+      </c>
     </row>
     <row r="506">
       <c r="A506" t="str">
@@ -14773,6 +16282,9 @@
       <c r="I506">
         <v>200000</v>
       </c>
+      <c r="J506" t="str">
+        <v/>
+      </c>
     </row>
     <row r="507">
       <c r="A507" t="str">
@@ -14802,6 +16314,9 @@
       <c r="I507">
         <v>200000</v>
       </c>
+      <c r="J507" t="str">
+        <v/>
+      </c>
     </row>
     <row r="508">
       <c r="A508" t="str">
@@ -14831,6 +16346,9 @@
       <c r="I508">
         <v>200000</v>
       </c>
+      <c r="J508" t="str">
+        <v/>
+      </c>
     </row>
     <row r="509">
       <c r="A509" t="str">
@@ -14860,6 +16378,9 @@
       <c r="I509">
         <v>200000</v>
       </c>
+      <c r="J509" t="str">
+        <v/>
+      </c>
     </row>
     <row r="510">
       <c r="A510" t="str">
@@ -14889,6 +16410,9 @@
       <c r="I510">
         <v>200000</v>
       </c>
+      <c r="J510" t="str">
+        <v/>
+      </c>
     </row>
     <row r="511">
       <c r="A511" t="str">
@@ -14918,6 +16442,9 @@
       <c r="I511">
         <v>200000</v>
       </c>
+      <c r="J511" t="str">
+        <v/>
+      </c>
     </row>
     <row r="512">
       <c r="A512" t="str">
@@ -14947,6 +16474,9 @@
       <c r="I512">
         <v>200000</v>
       </c>
+      <c r="J512" t="str">
+        <v/>
+      </c>
     </row>
     <row r="513">
       <c r="A513" t="str">
@@ -14976,6 +16506,9 @@
       <c r="I513">
         <v>200000</v>
       </c>
+      <c r="J513" t="str">
+        <v/>
+      </c>
     </row>
     <row r="514">
       <c r="A514" t="str">
@@ -15005,6 +16538,9 @@
       <c r="I514">
         <v>200000</v>
       </c>
+      <c r="J514" t="str">
+        <v/>
+      </c>
     </row>
     <row r="515">
       <c r="A515" t="str">
@@ -15034,6 +16570,9 @@
       <c r="I515">
         <v>200000</v>
       </c>
+      <c r="J515" t="str">
+        <v/>
+      </c>
     </row>
     <row r="516">
       <c r="A516" t="str">
@@ -15063,6 +16602,9 @@
       <c r="I516">
         <v>200000</v>
       </c>
+      <c r="J516" t="str">
+        <v/>
+      </c>
     </row>
     <row r="517">
       <c r="A517" t="str">
@@ -15092,6 +16634,9 @@
       <c r="I517">
         <v>200000</v>
       </c>
+      <c r="J517" t="str">
+        <v/>
+      </c>
     </row>
     <row r="518">
       <c r="A518" t="str">
@@ -15121,6 +16666,9 @@
       <c r="I518">
         <v>200000</v>
       </c>
+      <c r="J518" t="str">
+        <v/>
+      </c>
     </row>
     <row r="519">
       <c r="A519" t="str">
@@ -15150,6 +16698,9 @@
       <c r="I519">
         <v>200000</v>
       </c>
+      <c r="J519" t="str">
+        <v/>
+      </c>
     </row>
     <row r="520">
       <c r="A520" t="str">
@@ -15179,6 +16730,9 @@
       <c r="I520">
         <v>200000</v>
       </c>
+      <c r="J520" t="str">
+        <v/>
+      </c>
     </row>
     <row r="521">
       <c r="A521" t="str">
@@ -15208,6 +16762,9 @@
       <c r="I521">
         <v>200000</v>
       </c>
+      <c r="J521" t="str">
+        <v/>
+      </c>
     </row>
     <row r="522">
       <c r="A522" t="str">
@@ -15237,6 +16794,9 @@
       <c r="I522">
         <v>200000</v>
       </c>
+      <c r="J522" t="str">
+        <v/>
+      </c>
     </row>
     <row r="523">
       <c r="A523" t="str">
@@ -15266,6 +16826,9 @@
       <c r="I523">
         <v>200000</v>
       </c>
+      <c r="J523" t="str">
+        <v/>
+      </c>
     </row>
     <row r="524">
       <c r="A524" t="str">
@@ -15295,6 +16858,9 @@
       <c r="I524">
         <v>200000</v>
       </c>
+      <c r="J524" t="str">
+        <v/>
+      </c>
     </row>
     <row r="525">
       <c r="A525" t="str">
@@ -15324,6 +16890,9 @@
       <c r="I525">
         <v>200000</v>
       </c>
+      <c r="J525" t="str">
+        <v/>
+      </c>
     </row>
     <row r="526">
       <c r="A526" t="str">
@@ -15353,6 +16922,9 @@
       <c r="I526">
         <v>200000</v>
       </c>
+      <c r="J526" t="str">
+        <v/>
+      </c>
     </row>
     <row r="527">
       <c r="A527" t="str">
@@ -15382,6 +16954,9 @@
       <c r="I527">
         <v>200000</v>
       </c>
+      <c r="J527" t="str">
+        <v/>
+      </c>
     </row>
     <row r="528">
       <c r="A528" t="str">
@@ -15411,6 +16986,9 @@
       <c r="I528">
         <v>200000</v>
       </c>
+      <c r="J528" t="str">
+        <v/>
+      </c>
     </row>
     <row r="529">
       <c r="A529" t="str">
@@ -15440,6 +17018,9 @@
       <c r="I529">
         <v>200000</v>
       </c>
+      <c r="J529" t="str">
+        <v/>
+      </c>
     </row>
     <row r="530">
       <c r="A530" t="str">
@@ -15469,6 +17050,9 @@
       <c r="I530">
         <v>200000</v>
       </c>
+      <c r="J530" t="str">
+        <v/>
+      </c>
     </row>
     <row r="531">
       <c r="A531" t="str">
@@ -15498,6 +17082,9 @@
       <c r="I531">
         <v>200000</v>
       </c>
+      <c r="J531" t="str">
+        <v/>
+      </c>
     </row>
     <row r="532">
       <c r="A532" t="str">
@@ -15527,6 +17114,9 @@
       <c r="I532">
         <v>200000</v>
       </c>
+      <c r="J532" t="str">
+        <v/>
+      </c>
     </row>
     <row r="533">
       <c r="A533" t="str">
@@ -15556,6 +17146,9 @@
       <c r="I533">
         <v>200000</v>
       </c>
+      <c r="J533" t="str">
+        <v/>
+      </c>
     </row>
     <row r="534">
       <c r="A534" t="str">
@@ -15582,6 +17175,9 @@
       <c r="H534" t="str">
         <v>10.02.2025</v>
       </c>
+      <c r="J534" t="str">
+        <v/>
+      </c>
     </row>
     <row r="535">
       <c r="A535" t="str">
@@ -15608,6 +17204,9 @@
       <c r="H535" t="str">
         <v>10.02.2025</v>
       </c>
+      <c r="J535" t="str">
+        <v/>
+      </c>
     </row>
     <row r="536">
       <c r="A536" t="str">
@@ -15634,6 +17233,9 @@
       <c r="H536" t="str">
         <v>10.02.2025</v>
       </c>
+      <c r="J536" t="str">
+        <v/>
+      </c>
     </row>
     <row r="537">
       <c r="A537" t="str">
@@ -15660,6 +17262,9 @@
       <c r="H537" t="str">
         <v>10.02.2025</v>
       </c>
+      <c r="J537" t="str">
+        <v/>
+      </c>
     </row>
     <row r="538">
       <c r="A538" t="str">
@@ -15686,6 +17291,9 @@
       <c r="H538" t="str">
         <v>10.02.2025</v>
       </c>
+      <c r="J538" t="str">
+        <v/>
+      </c>
     </row>
     <row r="539">
       <c r="A539" t="str">
@@ -15712,6 +17320,9 @@
       <c r="H539" t="str">
         <v>12.02.2025</v>
       </c>
+      <c r="J539" t="str">
+        <v/>
+      </c>
     </row>
     <row r="540">
       <c r="A540" t="str">
@@ -15738,6 +17349,9 @@
       <c r="H540" t="str">
         <v>12.02.2025</v>
       </c>
+      <c r="J540" t="str">
+        <v/>
+      </c>
     </row>
     <row r="541">
       <c r="A541" t="str">
@@ -15764,6 +17378,9 @@
       <c r="H541" t="str">
         <v>12.02.2025</v>
       </c>
+      <c r="J541" t="str">
+        <v/>
+      </c>
     </row>
     <row r="542">
       <c r="A542" t="str">
@@ -15790,6 +17407,9 @@
       <c r="H542" t="str">
         <v>12.02.2025</v>
       </c>
+      <c r="J542" t="str">
+        <v/>
+      </c>
     </row>
     <row r="543">
       <c r="A543" t="str">
@@ -15816,6 +17436,9 @@
       <c r="H543" t="str">
         <v>13.02.2025</v>
       </c>
+      <c r="J543" t="str">
+        <v/>
+      </c>
     </row>
     <row r="544">
       <c r="A544" t="str">
@@ -15842,6 +17465,9 @@
       <c r="H544" t="str">
         <v>13.02.2025</v>
       </c>
+      <c r="J544" t="str">
+        <v/>
+      </c>
     </row>
     <row r="545">
       <c r="A545" t="str">
@@ -15868,6 +17494,9 @@
       <c r="H545" t="str">
         <v>13.02.2025</v>
       </c>
+      <c r="J545" t="str">
+        <v/>
+      </c>
     </row>
     <row r="546">
       <c r="A546" t="str">
@@ -15894,6 +17523,9 @@
       <c r="H546" t="str">
         <v>14.02.2025</v>
       </c>
+      <c r="J546" t="str">
+        <v/>
+      </c>
     </row>
     <row r="547">
       <c r="A547" t="str">
@@ -15920,6 +17552,9 @@
       <c r="H547" t="str">
         <v>15.02.2025</v>
       </c>
+      <c r="J547" t="str">
+        <v/>
+      </c>
     </row>
     <row r="548">
       <c r="A548" t="str">
@@ -15946,6 +17581,9 @@
       <c r="H548" t="str">
         <v>15.02.2025</v>
       </c>
+      <c r="J548" t="str">
+        <v/>
+      </c>
     </row>
     <row r="549">
       <c r="A549" t="str">
@@ -15972,6 +17610,9 @@
       <c r="H549" t="str">
         <v>15.02.2025</v>
       </c>
+      <c r="J549" t="str">
+        <v/>
+      </c>
     </row>
     <row r="550">
       <c r="A550" t="str">
@@ -15998,6 +17639,9 @@
       <c r="H550" t="str">
         <v>15.02.2025</v>
       </c>
+      <c r="J550" t="str">
+        <v/>
+      </c>
     </row>
     <row r="551">
       <c r="A551" t="str">
@@ -16024,6 +17668,9 @@
       <c r="H551" t="str">
         <v>15.02.2025</v>
       </c>
+      <c r="J551" t="str">
+        <v/>
+      </c>
     </row>
     <row r="552">
       <c r="A552" t="str">
@@ -16050,6 +17697,9 @@
       <c r="H552" t="str">
         <v>15.02.2025</v>
       </c>
+      <c r="J552" t="str">
+        <v/>
+      </c>
     </row>
     <row r="553">
       <c r="A553" t="str">
@@ -16076,6 +17726,9 @@
       <c r="H553" t="str">
         <v>16.02.2025</v>
       </c>
+      <c r="J553" t="str">
+        <v/>
+      </c>
     </row>
     <row r="554">
       <c r="A554" t="str">
@@ -16102,6 +17755,9 @@
       <c r="H554" t="str">
         <v>16.02.2025</v>
       </c>
+      <c r="J554" t="str">
+        <v/>
+      </c>
     </row>
     <row r="555">
       <c r="A555" t="str">
@@ -16128,6 +17784,9 @@
       <c r="H555" t="str">
         <v>16.02.2025</v>
       </c>
+      <c r="J555" t="str">
+        <v/>
+      </c>
     </row>
     <row r="556">
       <c r="A556" t="str">
@@ -16154,6 +17813,9 @@
       <c r="H556" t="str">
         <v>16.02.2025</v>
       </c>
+      <c r="J556" t="str">
+        <v/>
+      </c>
     </row>
     <row r="557">
       <c r="A557" t="str">
@@ -16180,6 +17842,9 @@
       <c r="H557" t="str">
         <v>17.02.2025</v>
       </c>
+      <c r="J557" t="str">
+        <v/>
+      </c>
     </row>
     <row r="558">
       <c r="A558" t="str">
@@ -16206,6 +17871,9 @@
       <c r="H558" t="str">
         <v>17.02.2025</v>
       </c>
+      <c r="J558" t="str">
+        <v/>
+      </c>
     </row>
     <row r="559">
       <c r="A559" t="str">
@@ -16232,6 +17900,9 @@
       <c r="H559" t="str">
         <v>18.02.2025</v>
       </c>
+      <c r="J559" t="str">
+        <v/>
+      </c>
       <c r="K559" t="str">
         <v>27,02,2025</v>
       </c>
@@ -16267,6 +17938,9 @@
       <c r="H560" t="str">
         <v>18.02.2025</v>
       </c>
+      <c r="J560" t="str">
+        <v/>
+      </c>
       <c r="L560">
         <v>3900000</v>
       </c>
@@ -16296,6 +17970,9 @@
       <c r="H561" t="str">
         <v>18.02.2025</v>
       </c>
+      <c r="J561" t="str">
+        <v/>
+      </c>
       <c r="L561">
         <v>2100000</v>
       </c>
@@ -16325,6 +18002,9 @@
       <c r="H562" t="str">
         <v>18.02.2025</v>
       </c>
+      <c r="J562" t="str">
+        <v/>
+      </c>
       <c r="L562">
         <v>6000000</v>
       </c>
@@ -16360,6 +18040,9 @@
       <c r="H563" t="str">
         <v>19.02.2025</v>
       </c>
+      <c r="J563" t="str">
+        <v/>
+      </c>
       <c r="N563">
         <v>-8000000</v>
       </c>
@@ -16389,6 +18072,9 @@
       <c r="H564" t="str">
         <v>19.02.2025</v>
       </c>
+      <c r="J564" t="str">
+        <v/>
+      </c>
     </row>
     <row r="565">
       <c r="A565" t="str">
@@ -16415,6 +18101,9 @@
       <c r="H565" t="str">
         <v>20.02.2025</v>
       </c>
+      <c r="J565" t="str">
+        <v/>
+      </c>
     </row>
     <row r="566">
       <c r="A566" t="str">
@@ -16441,6 +18130,9 @@
       <c r="H566" t="str">
         <v>20.02.2025</v>
       </c>
+      <c r="J566" t="str">
+        <v/>
+      </c>
     </row>
     <row r="567">
       <c r="A567" t="str">
@@ -16467,6 +18159,9 @@
       <c r="H567" t="str">
         <v>20.02.2025</v>
       </c>
+      <c r="J567" t="str">
+        <v/>
+      </c>
     </row>
     <row r="568">
       <c r="A568" t="str">
@@ -16493,6 +18188,9 @@
       <c r="H568" t="str">
         <v>20.02.2025</v>
       </c>
+      <c r="J568" t="str">
+        <v/>
+      </c>
     </row>
     <row r="569">
       <c r="A569" t="str">
@@ -16519,6 +18217,9 @@
       <c r="H569" t="str">
         <v>20.02.2025</v>
       </c>
+      <c r="J569" t="str">
+        <v/>
+      </c>
     </row>
     <row r="570">
       <c r="A570" t="str">
@@ -16545,6 +18246,9 @@
       <c r="H570" t="str">
         <v>20.02.2025</v>
       </c>
+      <c r="J570" t="str">
+        <v/>
+      </c>
     </row>
     <row r="571">
       <c r="A571" t="str">
@@ -16571,6 +18275,9 @@
       <c r="H571" t="str">
         <v>20.02.2025</v>
       </c>
+      <c r="J571" t="str">
+        <v/>
+      </c>
     </row>
     <row r="572">
       <c r="A572" t="str">
@@ -16597,6 +18304,9 @@
       <c r="H572" t="str">
         <v>20.02.2025</v>
       </c>
+      <c r="J572" t="str">
+        <v/>
+      </c>
     </row>
     <row r="573">
       <c r="A573" t="str">
@@ -16623,6 +18333,9 @@
       <c r="H573" t="str">
         <v>20.02.2025</v>
       </c>
+      <c r="J573" t="str">
+        <v/>
+      </c>
     </row>
     <row r="574">
       <c r="A574" t="str">
@@ -16649,6 +18362,9 @@
       <c r="H574" t="str">
         <v>20.02.2025</v>
       </c>
+      <c r="J574" t="str">
+        <v/>
+      </c>
     </row>
     <row r="575">
       <c r="A575" t="str">
@@ -16675,6 +18391,9 @@
       <c r="H575" t="str">
         <v>21.02.2025</v>
       </c>
+      <c r="J575" t="str">
+        <v/>
+      </c>
     </row>
     <row r="576">
       <c r="A576" t="str">
@@ -16701,6 +18420,9 @@
       <c r="H576" t="str">
         <v>22.02.2025</v>
       </c>
+      <c r="J576" t="str">
+        <v/>
+      </c>
     </row>
     <row r="577">
       <c r="A577" t="str">
@@ -16727,6 +18449,9 @@
       <c r="H577" t="str">
         <v>24.02.2025</v>
       </c>
+      <c r="J577" t="str">
+        <v/>
+      </c>
     </row>
     <row r="578">
       <c r="A578" t="str">
@@ -16753,6 +18478,9 @@
       <c r="H578" t="str">
         <v>24.02.2025</v>
       </c>
+      <c r="J578" t="str">
+        <v/>
+      </c>
     </row>
     <row r="579">
       <c r="A579" t="str">
@@ -16779,6 +18507,9 @@
       <c r="H579" t="str">
         <v>25.02.2025</v>
       </c>
+      <c r="J579" t="str">
+        <v/>
+      </c>
     </row>
     <row r="580">
       <c r="A580" t="str">
@@ -16805,6 +18536,9 @@
       <c r="H580" t="str">
         <v>25.02.2025</v>
       </c>
+      <c r="J580" t="str">
+        <v/>
+      </c>
     </row>
     <row r="581">
       <c r="A581" t="str">
@@ -16831,6 +18565,9 @@
       <c r="H581" t="str">
         <v>25.02.2025</v>
       </c>
+      <c r="J581" t="str">
+        <v/>
+      </c>
     </row>
     <row r="582">
       <c r="A582" t="str">
@@ -16857,6 +18594,9 @@
       <c r="H582" t="str">
         <v>26.02.2025</v>
       </c>
+      <c r="J582" t="str">
+        <v/>
+      </c>
     </row>
     <row r="583">
       <c r="A583" t="str">
@@ -16883,6 +18623,9 @@
       <c r="H583" t="str">
         <v>26.02.2025</v>
       </c>
+      <c r="J583" t="str">
+        <v/>
+      </c>
     </row>
     <row r="584">
       <c r="A584" t="str">
@@ -16909,6 +18652,9 @@
       <c r="H584" t="str">
         <v>26.02.2025</v>
       </c>
+      <c r="J584" t="str">
+        <v/>
+      </c>
     </row>
     <row r="585">
       <c r="A585" t="str">
@@ -16935,6 +18681,9 @@
       <c r="H585" t="str">
         <v>26.02.2025</v>
       </c>
+      <c r="J585" t="str">
+        <v/>
+      </c>
     </row>
     <row r="586">
       <c r="A586" t="str">
@@ -16961,6 +18710,9 @@
       <c r="H586" t="str">
         <v>26.02.2025</v>
       </c>
+      <c r="J586" t="str">
+        <v/>
+      </c>
     </row>
     <row r="587">
       <c r="A587" t="str">
@@ -16987,6 +18739,9 @@
       <c r="H587" t="str">
         <v>26.02.2025</v>
       </c>
+      <c r="J587" t="str">
+        <v/>
+      </c>
     </row>
     <row r="588">
       <c r="A588" t="str">
@@ -17013,6 +18768,9 @@
       <c r="H588" t="str">
         <v>27.02.2025</v>
       </c>
+      <c r="J588" t="str">
+        <v/>
+      </c>
     </row>
     <row r="589">
       <c r="A589" t="str">
@@ -17039,6 +18797,9 @@
       <c r="H589" t="str">
         <v>27.02.2025</v>
       </c>
+      <c r="J589" t="str">
+        <v/>
+      </c>
     </row>
     <row r="590">
       <c r="A590" t="str">
@@ -17065,6 +18826,9 @@
       <c r="H590" t="str">
         <v>27.02.2025</v>
       </c>
+      <c r="J590" t="str">
+        <v/>
+      </c>
     </row>
     <row r="591">
       <c r="A591" t="str">
@@ -17091,6 +18855,9 @@
       <c r="H591" t="str">
         <v>27.02.2025</v>
       </c>
+      <c r="J591" t="str">
+        <v/>
+      </c>
     </row>
     <row r="592">
       <c r="A592" t="str">
@@ -17117,6 +18884,9 @@
       <c r="H592" t="str">
         <v>27.02.2025</v>
       </c>
+      <c r="J592" t="str">
+        <v/>
+      </c>
     </row>
     <row r="593">
       <c r="A593" t="str">
@@ -17143,6 +18913,9 @@
       <c r="H593" t="str">
         <v>27.02.2025</v>
       </c>
+      <c r="J593" t="str">
+        <v/>
+      </c>
     </row>
     <row r="594">
       <c r="A594" t="str">
@@ -17169,6 +18942,9 @@
       <c r="H594" t="str">
         <v>27.02.2025</v>
       </c>
+      <c r="J594" t="str">
+        <v/>
+      </c>
     </row>
     <row r="595">
       <c r="A595" t="str">
@@ -17195,6 +18971,9 @@
       <c r="H595" t="str">
         <v>27.02.2025</v>
       </c>
+      <c r="J595" t="str">
+        <v/>
+      </c>
     </row>
     <row r="596">
       <c r="A596" t="str">
@@ -17221,6 +19000,9 @@
       <c r="H596" t="str">
         <v>28.02.2025</v>
       </c>
+      <c r="J596" t="str">
+        <v/>
+      </c>
     </row>
     <row r="597">
       <c r="A597" t="str">
@@ -17247,6 +19029,9 @@
       <c r="H597" t="str">
         <v>28.02.2025</v>
       </c>
+      <c r="J597" t="str">
+        <v/>
+      </c>
     </row>
     <row r="598">
       <c r="A598" t="str">
@@ -17273,6 +19058,9 @@
       <c r="H598" t="str">
         <v>28.02.2025</v>
       </c>
+      <c r="J598" t="str">
+        <v/>
+      </c>
     </row>
     <row r="599">
       <c r="A599" t="str">
@@ -17299,6 +19087,9 @@
       <c r="H599" t="str">
         <v>28.02.2025</v>
       </c>
+      <c r="J599" t="str">
+        <v/>
+      </c>
     </row>
     <row r="600">
       <c r="A600" t="str">
@@ -17325,6 +19116,9 @@
       <c r="H600" t="str">
         <v>28.02.2025</v>
       </c>
+      <c r="J600" t="str">
+        <v/>
+      </c>
     </row>
     <row r="601">
       <c r="A601" t="str">
@@ -17351,6 +19145,9 @@
       <c r="H601" t="str">
         <v>28.02.2025</v>
       </c>
+      <c r="J601" t="str">
+        <v/>
+      </c>
     </row>
     <row r="602">
       <c r="A602" t="str">
@@ -17377,6 +19174,9 @@
       <c r="H602" t="str">
         <v>28.02.2025</v>
       </c>
+      <c r="J602" t="str">
+        <v/>
+      </c>
     </row>
     <row r="603">
       <c r="A603" t="str">
@@ -17403,6 +19203,9 @@
       <c r="H603" t="str">
         <v>28.02.2025</v>
       </c>
+      <c r="J603" t="str">
+        <v/>
+      </c>
     </row>
     <row r="604">
       <c r="A604" t="str">
@@ -17429,6 +19232,9 @@
       <c r="H604" t="str">
         <v>28.02.2025</v>
       </c>
+      <c r="J604" t="str">
+        <v/>
+      </c>
     </row>
     <row r="605">
       <c r="A605" t="str">
@@ -17455,6 +19261,9 @@
       <c r="H605" t="str">
         <v>01.03.2025</v>
       </c>
+      <c r="J605" t="str">
+        <v/>
+      </c>
     </row>
     <row r="606">
       <c r="A606" t="str">
@@ -17481,6 +19290,9 @@
       <c r="H606" t="str">
         <v>01.03.2025</v>
       </c>
+      <c r="J606" t="str">
+        <v/>
+      </c>
     </row>
     <row r="607">
       <c r="A607" t="str">
@@ -17507,6 +19319,9 @@
       <c r="H607" t="str">
         <v>01.03.2025</v>
       </c>
+      <c r="J607" t="str">
+        <v/>
+      </c>
     </row>
     <row r="608">
       <c r="A608" t="str">
@@ -17533,6 +19348,9 @@
       <c r="H608" t="str">
         <v>01.03.2025</v>
       </c>
+      <c r="J608" t="str">
+        <v/>
+      </c>
     </row>
     <row r="609">
       <c r="A609" t="str">
@@ -17559,6 +19377,9 @@
       <c r="H609" t="str">
         <v>01.03.2025</v>
       </c>
+      <c r="J609" t="str">
+        <v/>
+      </c>
     </row>
     <row r="610">
       <c r="A610" t="str">
@@ -17585,6 +19406,9 @@
       <c r="H610" t="str">
         <v>02.03.2025</v>
       </c>
+      <c r="J610" t="str">
+        <v/>
+      </c>
     </row>
     <row r="611">
       <c r="A611" t="str">
@@ -17611,6 +19435,9 @@
       <c r="H611" t="str">
         <v>02.03.2025</v>
       </c>
+      <c r="J611" t="str">
+        <v/>
+      </c>
     </row>
     <row r="612">
       <c r="A612" t="str">
@@ -17637,6 +19464,9 @@
       <c r="H612" t="str">
         <v>02.03.2025</v>
       </c>
+      <c r="J612" t="str">
+        <v/>
+      </c>
     </row>
     <row r="613">
       <c r="A613" t="str">
@@ -17663,6 +19493,9 @@
       <c r="H613" t="str">
         <v>03.03.2025</v>
       </c>
+      <c r="J613" t="str">
+        <v/>
+      </c>
     </row>
     <row r="614">
       <c r="A614" t="str">
@@ -17689,6 +19522,9 @@
       <c r="H614" t="str">
         <v>03.03.2025</v>
       </c>
+      <c r="J614" t="str">
+        <v/>
+      </c>
     </row>
     <row r="615">
       <c r="A615" t="str">
@@ -17715,6 +19551,9 @@
       <c r="H615" t="str">
         <v>03.03.2025</v>
       </c>
+      <c r="J615" t="str">
+        <v/>
+      </c>
     </row>
     <row r="616">
       <c r="A616" t="str">
@@ -17741,6 +19580,9 @@
       <c r="H616" t="str">
         <v>03.03.2025</v>
       </c>
+      <c r="J616" t="str">
+        <v/>
+      </c>
     </row>
     <row r="617">
       <c r="A617" t="str">
@@ -17767,6 +19609,9 @@
       <c r="H617" t="str">
         <v>03.03.2025</v>
       </c>
+      <c r="J617" t="str">
+        <v/>
+      </c>
     </row>
     <row r="618">
       <c r="A618" t="str">
@@ -17793,6 +19638,9 @@
       <c r="H618" t="str">
         <v>03.03.2025</v>
       </c>
+      <c r="J618" t="str">
+        <v/>
+      </c>
     </row>
     <row r="619">
       <c r="A619" t="str">
@@ -17819,6 +19667,9 @@
       <c r="H619" t="str">
         <v>04.03.2025</v>
       </c>
+      <c r="J619" t="str">
+        <v/>
+      </c>
     </row>
     <row r="620">
       <c r="A620" t="str">
@@ -17845,6 +19696,9 @@
       <c r="H620" t="str">
         <v>04.03.2025</v>
       </c>
+      <c r="J620" t="str">
+        <v/>
+      </c>
     </row>
     <row r="621">
       <c r="A621" t="str">
@@ -17871,6 +19725,9 @@
       <c r="H621" t="str">
         <v>04.03.2025</v>
       </c>
+      <c r="J621" t="str">
+        <v/>
+      </c>
     </row>
     <row r="622">
       <c r="A622" t="str">
@@ -17897,6 +19754,9 @@
       <c r="H622" t="str">
         <v>04.03.2025</v>
       </c>
+      <c r="J622" t="str">
+        <v/>
+      </c>
     </row>
     <row r="623">
       <c r="A623" t="str">
@@ -17923,6 +19783,9 @@
       <c r="H623" t="str">
         <v>04.03.2025</v>
       </c>
+      <c r="J623" t="str">
+        <v/>
+      </c>
     </row>
     <row r="624">
       <c r="A624" t="str">
@@ -17949,6 +19812,9 @@
       <c r="H624" t="str">
         <v>04.03.2025</v>
       </c>
+      <c r="J624" t="str">
+        <v/>
+      </c>
       <c r="K624" t="str">
         <v>X</v>
       </c>
@@ -17978,6 +19844,9 @@
       <c r="H625" t="str">
         <v>04.03.2025</v>
       </c>
+      <c r="J625" t="str">
+        <v/>
+      </c>
     </row>
     <row r="626">
       <c r="A626" t="str">
@@ -18004,6 +19873,9 @@
       <c r="H626" t="str">
         <v>04.03.2025</v>
       </c>
+      <c r="J626" t="str">
+        <v/>
+      </c>
     </row>
     <row r="627">
       <c r="A627" t="str">
@@ -18030,6 +19902,9 @@
       <c r="H627" t="str">
         <v>05.03.2025</v>
       </c>
+      <c r="J627" t="str">
+        <v/>
+      </c>
     </row>
     <row r="628">
       <c r="A628" t="str">
@@ -18056,6 +19931,9 @@
       <c r="H628" t="str">
         <v>05.03.2025</v>
       </c>
+      <c r="J628" t="str">
+        <v/>
+      </c>
     </row>
     <row r="629">
       <c r="A629" t="str">
@@ -18082,6 +19960,9 @@
       <c r="H629" t="str">
         <v>05.03.2025</v>
       </c>
+      <c r="J629" t="str">
+        <v/>
+      </c>
     </row>
     <row r="630">
       <c r="A630" t="str">
@@ -18108,6 +19989,9 @@
       <c r="H630" t="str">
         <v>05.03.2025</v>
       </c>
+      <c r="J630" t="str">
+        <v/>
+      </c>
     </row>
     <row r="631">
       <c r="A631" t="str">
@@ -18134,6 +20018,9 @@
       <c r="H631" t="str">
         <v>05.03.2025</v>
       </c>
+      <c r="J631" t="str">
+        <v/>
+      </c>
     </row>
     <row r="632">
       <c r="A632" t="str">
@@ -18160,6 +20047,9 @@
       <c r="H632" t="str">
         <v>05.03.2025</v>
       </c>
+      <c r="J632" t="str">
+        <v/>
+      </c>
     </row>
     <row r="633">
       <c r="A633" t="str">
@@ -18186,6 +20076,9 @@
       <c r="H633" t="str">
         <v>06.03.2025</v>
       </c>
+      <c r="J633" t="str">
+        <v/>
+      </c>
     </row>
     <row r="634">
       <c r="A634" t="str">
@@ -18212,6 +20105,9 @@
       <c r="H634" t="str">
         <v>06.03.2025</v>
       </c>
+      <c r="J634" t="str">
+        <v/>
+      </c>
     </row>
     <row r="635">
       <c r="A635" t="str">
@@ -18238,6 +20134,9 @@
       <c r="H635" t="str">
         <v>07.03.2025</v>
       </c>
+      <c r="J635" t="str">
+        <v/>
+      </c>
     </row>
     <row r="636">
       <c r="A636" t="str">
@@ -18264,6 +20163,9 @@
       <c r="H636" t="str">
         <v>07.03.2025</v>
       </c>
+      <c r="J636" t="str">
+        <v/>
+      </c>
     </row>
     <row r="637">
       <c r="A637" t="str">
@@ -18290,6 +20192,9 @@
       <c r="H637" t="str">
         <v>07.03.2025</v>
       </c>
+      <c r="J637" t="str">
+        <v/>
+      </c>
     </row>
     <row r="638">
       <c r="A638" t="str">
@@ -18316,6 +20221,9 @@
       <c r="H638" t="str">
         <v>07.03.2025</v>
       </c>
+      <c r="J638" t="str">
+        <v/>
+      </c>
     </row>
     <row r="639">
       <c r="A639" t="str">
@@ -18342,6 +20250,9 @@
       <c r="H639" t="str">
         <v>07.03.2025</v>
       </c>
+      <c r="J639" t="str">
+        <v/>
+      </c>
     </row>
     <row r="640">
       <c r="A640" t="str">
@@ -18368,6 +20279,9 @@
       <c r="H640" t="str">
         <v>07.03.2025</v>
       </c>
+      <c r="J640" t="str">
+        <v/>
+      </c>
     </row>
     <row r="641">
       <c r="A641" t="str">
@@ -18394,6 +20308,9 @@
       <c r="H641" t="str">
         <v>07.03.2025</v>
       </c>
+      <c r="J641" t="str">
+        <v/>
+      </c>
     </row>
     <row r="642">
       <c r="A642" t="str">
@@ -18420,6 +20337,9 @@
       <c r="H642" t="str">
         <v>09.03.2025</v>
       </c>
+      <c r="J642" t="str">
+        <v/>
+      </c>
     </row>
     <row r="643">
       <c r="A643" t="str">
@@ -18446,6 +20366,9 @@
       <c r="H643" t="str">
         <v>09.03.2025</v>
       </c>
+      <c r="J643" t="str">
+        <v/>
+      </c>
     </row>
     <row r="644">
       <c r="A644" t="str">
@@ -18472,6 +20395,9 @@
       <c r="H644" t="str">
         <v>09.03.2025</v>
       </c>
+      <c r="J644" t="str">
+        <v/>
+      </c>
     </row>
     <row r="645">
       <c r="A645" t="str">
@@ -18498,6 +20424,9 @@
       <c r="H645" t="str">
         <v>09.03.2025</v>
       </c>
+      <c r="J645" t="str">
+        <v/>
+      </c>
     </row>
     <row r="646">
       <c r="A646" t="str">
@@ -18524,6 +20453,9 @@
       <c r="H646">
         <v>45722</v>
       </c>
+      <c r="J646" t="str">
+        <v/>
+      </c>
     </row>
     <row r="647">
       <c r="A647" t="str">
@@ -18550,6 +20482,9 @@
       <c r="H647">
         <v>45722</v>
       </c>
+      <c r="J647" t="str">
+        <v/>
+      </c>
     </row>
     <row r="648">
       <c r="A648" t="str">
@@ -18576,6 +20511,9 @@
       <c r="H648">
         <v>45722</v>
       </c>
+      <c r="J648" t="str">
+        <v/>
+      </c>
     </row>
     <row r="649">
       <c r="A649" t="str">
@@ -18602,6 +20540,9 @@
       <c r="H649">
         <v>45722</v>
       </c>
+      <c r="J649" t="str">
+        <v/>
+      </c>
     </row>
     <row r="650">
       <c r="A650" t="str">
@@ -18628,6 +20569,9 @@
       <c r="H650">
         <v>45722</v>
       </c>
+      <c r="J650" t="str">
+        <v/>
+      </c>
     </row>
     <row r="651">
       <c r="A651" t="str">
@@ -18654,6 +20598,9 @@
       <c r="H651" t="str">
         <v>09.03.2025</v>
       </c>
+      <c r="J651" t="str">
+        <v/>
+      </c>
     </row>
     <row r="652">
       <c r="A652" t="str">
@@ -18680,6 +20627,9 @@
       <c r="H652" t="str">
         <v>09.03.2025</v>
       </c>
+      <c r="J652" t="str">
+        <v/>
+      </c>
     </row>
     <row r="653">
       <c r="A653" t="str">
@@ -18706,6 +20656,9 @@
       <c r="H653" t="str">
         <v>10.03.2025</v>
       </c>
+      <c r="J653" t="str">
+        <v/>
+      </c>
     </row>
     <row r="654">
       <c r="A654" t="str">
@@ -18732,6 +20685,9 @@
       <c r="H654" t="str">
         <v>10.03.2025</v>
       </c>
+      <c r="J654" t="str">
+        <v/>
+      </c>
     </row>
     <row r="655">
       <c r="A655" t="str">
@@ -18758,6 +20714,9 @@
       <c r="H655" t="str">
         <v>10.03.2025</v>
       </c>
+      <c r="J655" t="str">
+        <v/>
+      </c>
     </row>
     <row r="656">
       <c r="A656" t="str">
@@ -18784,6 +20743,9 @@
       <c r="H656" t="str">
         <v>11.03.2025</v>
       </c>
+      <c r="J656" t="str">
+        <v/>
+      </c>
     </row>
     <row r="657">
       <c r="A657" t="str">
@@ -18810,6 +20772,9 @@
       <c r="H657" t="str">
         <v>11.03.2025</v>
       </c>
+      <c r="J657" t="str">
+        <v/>
+      </c>
     </row>
     <row r="658">
       <c r="A658" t="str">
@@ -18836,6 +20801,9 @@
       <c r="H658" t="str">
         <v>11.03.2025</v>
       </c>
+      <c r="J658" t="str">
+        <v/>
+      </c>
     </row>
     <row r="659">
       <c r="A659" t="str">
@@ -18862,6 +20830,9 @@
       <c r="H659" t="str">
         <v>11.03.2025</v>
       </c>
+      <c r="J659" t="str">
+        <v/>
+      </c>
     </row>
     <row r="660">
       <c r="A660" t="str">
@@ -18888,6 +20859,9 @@
       <c r="H660" t="str">
         <v>11.03.2025</v>
       </c>
+      <c r="J660" t="str">
+        <v/>
+      </c>
     </row>
     <row r="661">
       <c r="A661" t="str">
@@ -18914,6 +20888,9 @@
       <c r="H661" t="str">
         <v>12.03.2025</v>
       </c>
+      <c r="J661" t="str">
+        <v/>
+      </c>
     </row>
     <row r="662">
       <c r="A662" t="str">
@@ -18940,6 +20917,9 @@
       <c r="H662" t="str">
         <v>12.03.2025</v>
       </c>
+      <c r="J662" t="str">
+        <v/>
+      </c>
     </row>
     <row r="663">
       <c r="A663" t="str">
@@ -18966,6 +20946,9 @@
       <c r="H663" t="str">
         <v>12.03.2025</v>
       </c>
+      <c r="J663" t="str">
+        <v/>
+      </c>
     </row>
     <row r="664">
       <c r="A664" t="str">
@@ -18992,6 +20975,9 @@
       <c r="H664" t="str">
         <v>12.03.2025</v>
       </c>
+      <c r="J664" t="str">
+        <v/>
+      </c>
       <c r="L664" t="str">
         <v>100жена лаобана</v>
       </c>
@@ -19021,6 +21007,9 @@
       <c r="H665" t="str">
         <v>12.03.2025</v>
       </c>
+      <c r="J665" t="str">
+        <v/>
+      </c>
     </row>
     <row r="666">
       <c r="A666" t="str">
@@ -19047,6 +21036,9 @@
       <c r="H666" t="str">
         <v>12.03.2025</v>
       </c>
+      <c r="J666" t="str">
+        <v/>
+      </c>
     </row>
     <row r="667">
       <c r="A667" t="str">
@@ -19073,6 +21065,9 @@
       <c r="H667" t="str">
         <v>12.03.2025</v>
       </c>
+      <c r="J667" t="str">
+        <v/>
+      </c>
     </row>
     <row r="668">
       <c r="A668" t="str">
@@ -19099,6 +21094,9 @@
       <c r="H668" t="str">
         <v>13.03.2025</v>
       </c>
+      <c r="J668" t="str">
+        <v/>
+      </c>
     </row>
     <row r="669">
       <c r="A669" t="str">
@@ -19125,6 +21123,9 @@
       <c r="H669" t="str">
         <v>13.03.2025</v>
       </c>
+      <c r="J669" t="str">
+        <v/>
+      </c>
     </row>
     <row r="670">
       <c r="A670" t="str">
@@ -19151,6 +21152,9 @@
       <c r="H670" t="str">
         <v>13.03.2025</v>
       </c>
+      <c r="J670" t="str">
+        <v/>
+      </c>
     </row>
     <row r="671">
       <c r="A671" t="str">
@@ -19180,6 +21184,9 @@
       <c r="I671" t="str">
         <v>vaucher</v>
       </c>
+      <c r="J671" t="str">
+        <v/>
+      </c>
     </row>
     <row r="672">
       <c r="A672" t="str">
@@ -19209,6 +21216,9 @@
       <c r="I672" t="str">
         <v>M00991</v>
       </c>
+      <c r="J672" t="str">
+        <v/>
+      </c>
     </row>
     <row r="673">
       <c r="A673" t="str">
@@ -19235,6 +21245,9 @@
       <c r="H673" t="str">
         <v>13.03.2025</v>
       </c>
+      <c r="J673" t="str">
+        <v/>
+      </c>
     </row>
     <row r="674">
       <c r="A674" t="str">
@@ -19261,6 +21274,9 @@
       <c r="H674" t="str">
         <v>14.03.2025</v>
       </c>
+      <c r="J674" t="str">
+        <v/>
+      </c>
     </row>
     <row r="675">
       <c r="A675" t="str">
@@ -19287,6 +21303,9 @@
       <c r="H675" t="str">
         <v>14.03.2025</v>
       </c>
+      <c r="J675" t="str">
+        <v/>
+      </c>
     </row>
     <row r="676">
       <c r="A676" t="str">
@@ -19313,6 +21332,9 @@
       <c r="H676" t="str">
         <v>14.03.2025</v>
       </c>
+      <c r="J676" t="str">
+        <v/>
+      </c>
     </row>
     <row r="677">
       <c r="A677" t="str">
@@ -19339,6 +21361,9 @@
       <c r="H677" t="str">
         <v>14.03.2025</v>
       </c>
+      <c r="J677" t="str">
+        <v/>
+      </c>
     </row>
     <row r="678">
       <c r="A678" t="str">
@@ -19365,6 +21390,9 @@
       <c r="H678" t="str">
         <v>14.03.2025</v>
       </c>
+      <c r="J678" t="str">
+        <v/>
+      </c>
     </row>
     <row r="679">
       <c r="A679" t="str">
@@ -19391,6 +21419,9 @@
       <c r="H679" t="str">
         <v>14.03.2025</v>
       </c>
+      <c r="J679" t="str">
+        <v/>
+      </c>
     </row>
     <row r="680">
       <c r="A680" t="str">
@@ -19417,6 +21448,9 @@
       <c r="H680" t="str">
         <v>15.03.2025</v>
       </c>
+      <c r="J680" t="str">
+        <v/>
+      </c>
     </row>
     <row r="681">
       <c r="A681" t="str">
@@ -19443,6 +21477,9 @@
       <c r="H681" t="str">
         <v>15.03.2025</v>
       </c>
+      <c r="J681" t="str">
+        <v/>
+      </c>
     </row>
     <row r="682">
       <c r="A682" t="str">
@@ -19469,6 +21506,9 @@
       <c r="H682" t="str">
         <v>16.03.2025</v>
       </c>
+      <c r="J682" t="str">
+        <v/>
+      </c>
     </row>
     <row r="683">
       <c r="A683" t="str">
@@ -19495,6 +21535,9 @@
       <c r="H683">
         <v>45732</v>
       </c>
+      <c r="J683" t="str">
+        <v/>
+      </c>
     </row>
     <row r="684">
       <c r="A684" t="str">
@@ -19521,6 +21564,9 @@
       <c r="H684" t="str">
         <v>17.03.2025</v>
       </c>
+      <c r="J684" t="str">
+        <v/>
+      </c>
     </row>
     <row r="685">
       <c r="A685" t="str">
@@ -19547,6 +21593,9 @@
       <c r="H685" t="str">
         <v>17.03.2025</v>
       </c>
+      <c r="J685" t="str">
+        <v/>
+      </c>
     </row>
     <row r="686">
       <c r="A686" t="str">
@@ -19573,6 +21622,9 @@
       <c r="H686" t="str">
         <v>17.03.2025</v>
       </c>
+      <c r="J686" t="str">
+        <v/>
+      </c>
     </row>
     <row r="687">
       <c r="A687" t="str">
@@ -19599,6 +21651,9 @@
       <c r="H687" t="str">
         <v>17.03.2025</v>
       </c>
+      <c r="J687" t="str">
+        <v/>
+      </c>
     </row>
     <row r="688">
       <c r="A688" t="str">
@@ -19625,6 +21680,9 @@
       <c r="H688" t="str">
         <v>18.03.2025</v>
       </c>
+      <c r="J688" t="str">
+        <v/>
+      </c>
     </row>
     <row r="689">
       <c r="A689" t="str">
@@ -19651,6 +21709,9 @@
       <c r="H689" t="str">
         <v>18.03.2025</v>
       </c>
+      <c r="J689" t="str">
+        <v/>
+      </c>
     </row>
     <row r="690">
       <c r="A690" t="str">
@@ -19677,6 +21738,9 @@
       <c r="H690" t="str">
         <v>19.03.2025</v>
       </c>
+      <c r="J690" t="str">
+        <v/>
+      </c>
     </row>
     <row r="691">
       <c r="A691" t="str">
@@ -19703,6 +21767,9 @@
       <c r="H691" t="str">
         <v>19.03.2025</v>
       </c>
+      <c r="J691" t="str">
+        <v/>
+      </c>
     </row>
     <row r="692">
       <c r="A692" t="str">
@@ -19729,6 +21796,9 @@
       <c r="H692" t="str">
         <v>19.03.2025</v>
       </c>
+      <c r="J692" t="str">
+        <v/>
+      </c>
     </row>
     <row r="693">
       <c r="A693" t="str">
@@ -19755,6 +21825,9 @@
       <c r="H693" t="str">
         <v>19.03.2025</v>
       </c>
+      <c r="J693" t="str">
+        <v/>
+      </c>
     </row>
     <row r="694">
       <c r="A694" t="str">
@@ -19781,6 +21854,9 @@
       <c r="H694" t="str">
         <v>19.03.2025</v>
       </c>
+      <c r="J694" t="str">
+        <v/>
+      </c>
     </row>
     <row r="695">
       <c r="A695" t="str">
@@ -19807,6 +21883,9 @@
       <c r="H695" t="str">
         <v>19.03.2025</v>
       </c>
+      <c r="J695" t="str">
+        <v/>
+      </c>
     </row>
     <row r="696">
       <c r="A696" t="str">
@@ -19833,6 +21912,9 @@
       <c r="H696" t="str">
         <v>19.03.2025</v>
       </c>
+      <c r="J696" t="str">
+        <v/>
+      </c>
     </row>
     <row r="697">
       <c r="A697" t="str">
@@ -19859,6 +21941,9 @@
       <c r="H697" t="str">
         <v>19.03.2025</v>
       </c>
+      <c r="J697" t="str">
+        <v/>
+      </c>
     </row>
     <row r="698">
       <c r="A698" t="str">
@@ -19885,6 +21970,9 @@
       <c r="H698">
         <v>45735</v>
       </c>
+      <c r="J698" t="str">
+        <v/>
+      </c>
     </row>
     <row r="699">
       <c r="A699" t="str">
@@ -19911,6 +21999,9 @@
       <c r="H699" t="str">
         <v>19.03.2025</v>
       </c>
+      <c r="J699" t="str">
+        <v/>
+      </c>
       <c r="K699" t="str">
         <v>22 620 000</v>
       </c>
@@ -19943,6 +22034,9 @@
       <c r="H700" t="str">
         <v>20.03.2025</v>
       </c>
+      <c r="J700" t="str">
+        <v/>
+      </c>
     </row>
     <row r="701">
       <c r="A701" t="str">
@@ -19969,6 +22063,9 @@
       <c r="H701" t="str">
         <v>23.03.2025</v>
       </c>
+      <c r="J701" t="str">
+        <v/>
+      </c>
     </row>
     <row r="702">
       <c r="A702" t="str">
@@ -19995,6 +22092,9 @@
       <c r="H702" t="str">
         <v>23.03.2025</v>
       </c>
+      <c r="J702" t="str">
+        <v/>
+      </c>
     </row>
     <row r="703">
       <c r="A703" t="str">
@@ -20021,6 +22121,9 @@
       <c r="H703" t="str">
         <v>24.03.2025</v>
       </c>
+      <c r="J703" t="str">
+        <v/>
+      </c>
     </row>
     <row r="704">
       <c r="A704" t="str">
@@ -20047,6 +22150,9 @@
       <c r="H704" t="str">
         <v>24.03.2025</v>
       </c>
+      <c r="J704" t="str">
+        <v/>
+      </c>
     </row>
     <row r="705">
       <c r="A705" t="str">
@@ -20073,6 +22179,9 @@
       <c r="H705" t="str">
         <v>24.03.2025</v>
       </c>
+      <c r="J705" t="str">
+        <v/>
+      </c>
     </row>
     <row r="706">
       <c r="A706" t="str">
@@ -20099,6 +22208,9 @@
       <c r="H706" t="str">
         <v>24.03.2025</v>
       </c>
+      <c r="J706" t="str">
+        <v/>
+      </c>
     </row>
     <row r="707">
       <c r="A707" t="str">
@@ -20125,6 +22237,9 @@
       <c r="H707" t="str">
         <v>24.03.2025</v>
       </c>
+      <c r="J707" t="str">
+        <v/>
+      </c>
     </row>
     <row r="708">
       <c r="A708" t="str">
@@ -20151,6 +22266,9 @@
       <c r="H708" t="str">
         <v>25.03.2025</v>
       </c>
+      <c r="J708" t="str">
+        <v/>
+      </c>
     </row>
     <row r="709">
       <c r="A709" t="str">
@@ -20177,6 +22295,9 @@
       <c r="H709" t="str">
         <v>25.03.2025</v>
       </c>
+      <c r="J709" t="str">
+        <v/>
+      </c>
     </row>
     <row r="710">
       <c r="A710" t="str">
@@ -20203,6 +22324,9 @@
       <c r="H710" t="str">
         <v>26.03.2025</v>
       </c>
+      <c r="J710" t="str">
+        <v/>
+      </c>
     </row>
     <row r="711">
       <c r="A711" t="str">
@@ -20229,6 +22353,9 @@
       <c r="H711" t="str">
         <v>27.03.2025</v>
       </c>
+      <c r="J711" t="str">
+        <v/>
+      </c>
     </row>
     <row r="712">
       <c r="A712" t="str">
@@ -20255,6 +22382,9 @@
       <c r="H712" t="str">
         <v>27.03.2025</v>
       </c>
+      <c r="J712" t="str">
+        <v/>
+      </c>
     </row>
     <row r="713">
       <c r="A713" t="str">
@@ -20281,6 +22411,9 @@
       <c r="H713" t="str">
         <v>27.03.2025</v>
       </c>
+      <c r="J713" t="str">
+        <v/>
+      </c>
     </row>
     <row r="714">
       <c r="A714" t="str">
@@ -20307,6 +22440,9 @@
       <c r="H714" t="str">
         <v>27.03.2025</v>
       </c>
+      <c r="J714" t="str">
+        <v/>
+      </c>
     </row>
     <row r="715">
       <c r="A715" t="str">
@@ -20333,6 +22469,9 @@
       <c r="H715" t="str">
         <v>27.03.2025</v>
       </c>
+      <c r="J715" t="str">
+        <v/>
+      </c>
     </row>
     <row r="716">
       <c r="A716" t="str">
@@ -20359,6 +22498,9 @@
       <c r="H716" t="str">
         <v>28.03.2025</v>
       </c>
+      <c r="J716" t="str">
+        <v/>
+      </c>
     </row>
     <row r="717">
       <c r="A717" t="str">
@@ -20385,6 +22527,9 @@
       <c r="H717" t="str">
         <v>28.03.2025</v>
       </c>
+      <c r="J717" t="str">
+        <v/>
+      </c>
     </row>
     <row r="718">
       <c r="A718" t="str">
@@ -20411,6 +22556,9 @@
       <c r="H718" t="str">
         <v>28.03.2025</v>
       </c>
+      <c r="J718" t="str">
+        <v/>
+      </c>
     </row>
     <row r="719">
       <c r="A719" t="str">
@@ -20437,6 +22585,9 @@
       <c r="H719" t="str">
         <v>28.03.2025</v>
       </c>
+      <c r="J719" t="str">
+        <v/>
+      </c>
     </row>
     <row r="720">
       <c r="A720" t="str">
@@ -20463,6 +22614,9 @@
       <c r="H720" t="str">
         <v>28.03.2025</v>
       </c>
+      <c r="J720" t="str">
+        <v/>
+      </c>
     </row>
     <row r="721">
       <c r="A721" t="str">
@@ -20489,6 +22643,9 @@
       <c r="H721" t="str">
         <v>28.03.2025</v>
       </c>
+      <c r="J721" t="str">
+        <v/>
+      </c>
     </row>
     <row r="722">
       <c r="A722" t="str">
@@ -20515,6 +22672,9 @@
       <c r="H722" t="str">
         <v>28.03.2025</v>
       </c>
+      <c r="J722" t="str">
+        <v/>
+      </c>
     </row>
     <row r="723">
       <c r="A723" t="str">
@@ -20541,6 +22701,9 @@
       <c r="H723" t="str">
         <v>28.03.2025</v>
       </c>
+      <c r="J723" t="str">
+        <v/>
+      </c>
     </row>
     <row r="724">
       <c r="A724" t="str">
@@ -20567,6 +22730,9 @@
       <c r="H724" t="str">
         <v>28.03.2025</v>
       </c>
+      <c r="J724" t="str">
+        <v/>
+      </c>
     </row>
     <row r="725">
       <c r="A725" t="str">
@@ -20593,6 +22759,9 @@
       <c r="H725" t="str">
         <v>28.03.2025</v>
       </c>
+      <c r="J725" t="str">
+        <v/>
+      </c>
     </row>
     <row r="726">
       <c r="A726" t="str">
@@ -20619,6 +22788,9 @@
       <c r="H726" t="str">
         <v>28.03.2025</v>
       </c>
+      <c r="J726" t="str">
+        <v/>
+      </c>
     </row>
     <row r="727">
       <c r="A727" t="str">
@@ -20645,6 +22817,9 @@
       <c r="H727" t="str">
         <v>28.03.2025</v>
       </c>
+      <c r="J727" t="str">
+        <v/>
+      </c>
     </row>
     <row r="728">
       <c r="A728" t="str">
@@ -20671,6 +22846,9 @@
       <c r="H728" t="str">
         <v>28.03.2025</v>
       </c>
+      <c r="J728" t="str">
+        <v/>
+      </c>
     </row>
     <row r="729">
       <c r="A729" t="str">
@@ -20697,6 +22875,9 @@
       <c r="H729" t="str">
         <v>28.03.2025</v>
       </c>
+      <c r="J729" t="str">
+        <v/>
+      </c>
     </row>
     <row r="730">
       <c r="A730" t="str">
@@ -20723,6 +22904,9 @@
       <c r="H730" t="str">
         <v>28.03.2025</v>
       </c>
+      <c r="J730" t="str">
+        <v/>
+      </c>
     </row>
     <row r="731">
       <c r="A731" t="str">
@@ -20749,6 +22933,9 @@
       <c r="H731" t="str">
         <v>28.03.2025</v>
       </c>
+      <c r="J731" t="str">
+        <v/>
+      </c>
     </row>
     <row r="732">
       <c r="A732" t="str">
@@ -20775,6 +22962,9 @@
       <c r="H732" t="str">
         <v>28.03.2025</v>
       </c>
+      <c r="J732" t="str">
+        <v/>
+      </c>
     </row>
     <row r="733">
       <c r="A733" t="str">
@@ -20801,6 +22991,9 @@
       <c r="H733" t="str">
         <v>28.03.2025</v>
       </c>
+      <c r="J733" t="str">
+        <v/>
+      </c>
     </row>
     <row r="734">
       <c r="A734" t="str">
@@ -20827,6 +23020,9 @@
       <c r="H734" t="str">
         <v>28.03.2025</v>
       </c>
+      <c r="J734" t="str">
+        <v/>
+      </c>
     </row>
     <row r="735">
       <c r="A735" t="str">
@@ -20853,6 +23049,9 @@
       <c r="H735" t="str">
         <v>29.03.2025</v>
       </c>
+      <c r="J735" t="str">
+        <v/>
+      </c>
     </row>
     <row r="736">
       <c r="A736" t="str">
@@ -20879,6 +23078,9 @@
       <c r="H736" t="str">
         <v>29.03.2025</v>
       </c>
+      <c r="J736" t="str">
+        <v/>
+      </c>
     </row>
     <row r="737">
       <c r="A737" t="str">
@@ -20905,6 +23107,9 @@
       <c r="H737" t="str">
         <v>29.03.2025</v>
       </c>
+      <c r="J737" t="str">
+        <v/>
+      </c>
     </row>
     <row r="738">
       <c r="A738" t="str">
@@ -20931,6 +23136,9 @@
       <c r="H738" t="str">
         <v>29.03.2025</v>
       </c>
+      <c r="J738" t="str">
+        <v/>
+      </c>
     </row>
     <row r="739">
       <c r="A739" t="str">
@@ -20957,6 +23165,9 @@
       <c r="H739" t="str">
         <v>29.03.2025</v>
       </c>
+      <c r="J739" t="str">
+        <v/>
+      </c>
     </row>
     <row r="740">
       <c r="A740" t="str">
@@ -20983,6 +23194,9 @@
       <c r="H740" t="str">
         <v>29.03.2025</v>
       </c>
+      <c r="J740" t="str">
+        <v/>
+      </c>
     </row>
     <row r="741">
       <c r="A741" t="str">
@@ -21009,6 +23223,9 @@
       <c r="H741" t="str">
         <v>29.03.2025</v>
       </c>
+      <c r="J741" t="str">
+        <v/>
+      </c>
     </row>
     <row r="742">
       <c r="A742" t="str">
@@ -21035,6 +23252,9 @@
       <c r="H742" t="str">
         <v>29.03.2025</v>
       </c>
+      <c r="J742" t="str">
+        <v/>
+      </c>
     </row>
     <row r="743">
       <c r="A743" t="str">
@@ -21061,6 +23281,9 @@
       <c r="H743" t="str">
         <v>29.03.2025</v>
       </c>
+      <c r="J743" t="str">
+        <v/>
+      </c>
     </row>
     <row r="744">
       <c r="A744" t="str">
@@ -21087,6 +23310,9 @@
       <c r="H744" t="str">
         <v>29.03.2025</v>
       </c>
+      <c r="J744" t="str">
+        <v/>
+      </c>
     </row>
     <row r="745">
       <c r="A745" t="str">
@@ -21113,6 +23339,9 @@
       <c r="H745" t="str">
         <v>29.03.2025</v>
       </c>
+      <c r="J745" t="str">
+        <v/>
+      </c>
     </row>
     <row r="746">
       <c r="A746" t="str">
@@ -21139,6 +23368,9 @@
       <c r="H746" t="str">
         <v>31.03.2025</v>
       </c>
+      <c r="J746" t="str">
+        <v/>
+      </c>
     </row>
     <row r="747">
       <c r="A747" t="str">
@@ -21165,6 +23397,9 @@
       <c r="H747" t="str">
         <v>31.03.2025</v>
       </c>
+      <c r="J747" t="str">
+        <v/>
+      </c>
     </row>
     <row r="748">
       <c r="A748" t="str">
@@ -21191,6 +23426,9 @@
       <c r="H748" t="str">
         <v>31.03.2025</v>
       </c>
+      <c r="J748" t="str">
+        <v/>
+      </c>
     </row>
     <row r="749">
       <c r="A749" t="str">
@@ -21217,6 +23455,9 @@
       <c r="H749">
         <v>45742</v>
       </c>
+      <c r="J749" t="str">
+        <v/>
+      </c>
     </row>
     <row r="750">
       <c r="A750" t="str">
@@ -21243,6 +23484,9 @@
       <c r="H750">
         <v>45742</v>
       </c>
+      <c r="J750" t="str">
+        <v/>
+      </c>
     </row>
     <row r="751">
       <c r="A751" t="str">
@@ -21269,6 +23513,9 @@
       <c r="H751" t="str">
         <v>31.03.2025</v>
       </c>
+      <c r="J751" t="str">
+        <v/>
+      </c>
     </row>
     <row r="752">
       <c r="A752" t="str">
@@ -21295,6 +23542,9 @@
       <c r="H752" t="str">
         <v>31.03.2025</v>
       </c>
+      <c r="J752" t="str">
+        <v/>
+      </c>
     </row>
     <row r="753">
       <c r="A753" t="str">
@@ -21321,6 +23571,9 @@
       <c r="H753" t="str">
         <v>31.03.2025</v>
       </c>
+      <c r="J753" t="str">
+        <v/>
+      </c>
     </row>
     <row r="754">
       <c r="A754" t="str">
@@ -21347,6 +23600,9 @@
       <c r="H754" t="str">
         <v>31.03.2025</v>
       </c>
+      <c r="J754" t="str">
+        <v/>
+      </c>
     </row>
     <row r="755">
       <c r="A755" t="str">
@@ -21373,6 +23629,9 @@
       <c r="H755" t="str">
         <v>31.03.2025</v>
       </c>
+      <c r="J755" t="str">
+        <v/>
+      </c>
     </row>
     <row r="756">
       <c r="A756" t="str">
@@ -21399,6 +23658,9 @@
       <c r="H756" t="str">
         <v>01.04.2025</v>
       </c>
+      <c r="J756" t="str">
+        <v/>
+      </c>
     </row>
     <row r="757">
       <c r="A757" t="str">
@@ -21425,6 +23687,9 @@
       <c r="H757" t="str">
         <v>02.04.2025</v>
       </c>
+      <c r="J757" t="str">
+        <v/>
+      </c>
     </row>
     <row r="758">
       <c r="A758" t="str">
@@ -21451,6 +23716,9 @@
       <c r="H758" t="str">
         <v>02.04.2025</v>
       </c>
+      <c r="J758" t="str">
+        <v/>
+      </c>
     </row>
     <row r="759">
       <c r="A759" t="str">
@@ -21477,6 +23745,9 @@
       <c r="H759" t="str">
         <v>02.04.2025</v>
       </c>
+      <c r="J759" t="str">
+        <v/>
+      </c>
     </row>
     <row r="760">
       <c r="A760" t="str">
@@ -21503,6 +23774,9 @@
       <c r="H760" t="str">
         <v>04.04.2025</v>
       </c>
+      <c r="J760" t="str">
+        <v/>
+      </c>
       <c r="K760">
         <v>1000000</v>
       </c>
@@ -21535,6 +23809,9 @@
       <c r="H761" t="str">
         <v>04.04.2025</v>
       </c>
+      <c r="J761" t="str">
+        <v/>
+      </c>
     </row>
     <row r="762">
       <c r="A762" t="str">
@@ -21561,6 +23838,9 @@
       <c r="H762" t="str">
         <v>04.04.2025</v>
       </c>
+      <c r="J762" t="str">
+        <v/>
+      </c>
       <c r="O762" t="str">
         <v xml:space="preserve">100 мунира </v>
       </c>
@@ -21590,6 +23870,9 @@
       <c r="H763" t="str">
         <v>04.04.2025</v>
       </c>
+      <c r="J763" t="str">
+        <v/>
+      </c>
     </row>
     <row r="764">
       <c r="A764" t="str">
@@ -21616,6 +23899,9 @@
       <c r="H764" t="str">
         <v>04.04.2025</v>
       </c>
+      <c r="J764" t="str">
+        <v/>
+      </c>
     </row>
     <row r="765">
       <c r="A765" t="str">
@@ -21642,6 +23928,9 @@
       <c r="H765" t="str">
         <v>05.04.2025</v>
       </c>
+      <c r="J765" t="str">
+        <v/>
+      </c>
     </row>
     <row r="766">
       <c r="A766" t="str">
@@ -21668,6 +23957,9 @@
       <c r="H766" t="str">
         <v>07.04.2025</v>
       </c>
+      <c r="J766" t="str">
+        <v/>
+      </c>
     </row>
     <row r="767">
       <c r="A767" t="str">
@@ -21694,6 +23986,9 @@
       <c r="H767" t="str">
         <v>07.04.2025</v>
       </c>
+      <c r="J767" t="str">
+        <v/>
+      </c>
     </row>
     <row r="768">
       <c r="A768" t="str">
@@ -21720,6 +24015,9 @@
       <c r="H768" t="str">
         <v>08.04.2025</v>
       </c>
+      <c r="J768" t="str">
+        <v/>
+      </c>
     </row>
     <row r="769">
       <c r="A769" t="str">
@@ -21746,6 +24044,9 @@
       <c r="H769" t="str">
         <v>08.04.2025</v>
       </c>
+      <c r="J769" t="str">
+        <v/>
+      </c>
     </row>
     <row r="770">
       <c r="A770" t="str">
@@ -21772,6 +24073,9 @@
       <c r="H770" t="str">
         <v>08.04.2025</v>
       </c>
+      <c r="J770" t="str">
+        <v/>
+      </c>
     </row>
     <row r="771">
       <c r="A771" t="str">
@@ -21798,6 +24102,9 @@
       <c r="H771" t="str">
         <v>08.04.2025</v>
       </c>
+      <c r="J771" t="str">
+        <v/>
+      </c>
     </row>
     <row r="772">
       <c r="A772" t="str">
@@ -21824,6 +24131,9 @@
       <c r="H772" t="str">
         <v>08.04.2025</v>
       </c>
+      <c r="J772" t="str">
+        <v/>
+      </c>
     </row>
     <row r="773">
       <c r="A773" t="str">
@@ -21850,6 +24160,9 @@
       <c r="H773" t="str">
         <v>09.04.2025</v>
       </c>
+      <c r="J773" t="str">
+        <v/>
+      </c>
     </row>
     <row r="774">
       <c r="A774" t="str">
@@ -21876,6 +24189,9 @@
       <c r="H774" t="str">
         <v>09.04.2025</v>
       </c>
+      <c r="J774" t="str">
+        <v/>
+      </c>
     </row>
     <row r="775">
       <c r="A775" t="str">
@@ -21902,6 +24218,9 @@
       <c r="H775" t="str">
         <v>09.04.2025</v>
       </c>
+      <c r="J775" t="str">
+        <v/>
+      </c>
     </row>
     <row r="776">
       <c r="A776" t="str">
@@ -21928,6 +24247,9 @@
       <c r="H776" t="str">
         <v>09.04.2025</v>
       </c>
+      <c r="J776" t="str">
+        <v/>
+      </c>
     </row>
     <row r="777">
       <c r="A777" t="str">
@@ -21954,6 +24276,9 @@
       <c r="H777" t="str">
         <v>09.04.2025</v>
       </c>
+      <c r="J777" t="str">
+        <v/>
+      </c>
     </row>
     <row r="778">
       <c r="A778" t="str">
@@ -21980,6 +24305,9 @@
       <c r="H778" t="str">
         <v>11.04.2025</v>
       </c>
+      <c r="J778" t="str">
+        <v/>
+      </c>
     </row>
     <row r="779">
       <c r="A779" t="str">
@@ -22006,6 +24334,9 @@
       <c r="H779" t="str">
         <v>11.04.2025</v>
       </c>
+      <c r="J779" t="str">
+        <v/>
+      </c>
       <c r="O779" t="str">
         <v>100 тыс капкат</v>
       </c>
@@ -22035,6 +24366,9 @@
       <c r="H780" t="str">
         <v>11.04.2025</v>
       </c>
+      <c r="J780" t="str">
+        <v/>
+      </c>
     </row>
     <row r="781">
       <c r="A781" t="str">
@@ -22061,6 +24395,9 @@
       <c r="H781" t="str">
         <v>11.04.2025</v>
       </c>
+      <c r="J781" t="str">
+        <v/>
+      </c>
     </row>
     <row r="782">
       <c r="A782" t="str">
@@ -22087,6 +24424,9 @@
       <c r="H782" t="str">
         <v>12.04.2025</v>
       </c>
+      <c r="J782" t="str">
+        <v/>
+      </c>
       <c r="O782">
         <v>13700000</v>
       </c>
@@ -22119,6 +24459,9 @@
       <c r="H783" t="str">
         <v>12.04.2025</v>
       </c>
+      <c r="J783" t="str">
+        <v/>
+      </c>
     </row>
     <row r="784">
       <c r="A784" t="str">
@@ -22145,6 +24488,9 @@
       <c r="H784" t="str">
         <v>13.04.2025</v>
       </c>
+      <c r="J784" t="str">
+        <v/>
+      </c>
     </row>
     <row r="785">
       <c r="A785" t="str">
@@ -22171,6 +24517,9 @@
       <c r="H785" t="str">
         <v>14.04.2025</v>
       </c>
+      <c r="J785" t="str">
+        <v/>
+      </c>
     </row>
     <row r="786">
       <c r="A786" t="str">
@@ -22197,6 +24546,9 @@
       <c r="H786" t="str">
         <v>14.04.2025</v>
       </c>
+      <c r="J786" t="str">
+        <v/>
+      </c>
     </row>
     <row r="787">
       <c r="A787" t="str">
@@ -22223,6 +24575,9 @@
       <c r="H787" t="str">
         <v>14.04.2025</v>
       </c>
+      <c r="J787" t="str">
+        <v/>
+      </c>
     </row>
     <row r="788">
       <c r="A788" t="str">
@@ -22249,6 +24604,9 @@
       <c r="H788" t="str">
         <v>16.04.2025</v>
       </c>
+      <c r="J788" t="str">
+        <v/>
+      </c>
     </row>
     <row r="789">
       <c r="A789" t="str">
@@ -22275,6 +24633,9 @@
       <c r="H789" t="str">
         <v>16.04.2025</v>
       </c>
+      <c r="J789" t="str">
+        <v/>
+      </c>
       <c r="O789">
         <v>1700000</v>
       </c>
@@ -22310,6 +24671,9 @@
       <c r="H790" t="str">
         <v>16.04.2025</v>
       </c>
+      <c r="J790" t="str">
+        <v/>
+      </c>
     </row>
     <row r="791">
       <c r="A791" t="str">
@@ -22336,6 +24700,9 @@
       <c r="H791" t="str">
         <v>16.04.2025</v>
       </c>
+      <c r="J791" t="str">
+        <v/>
+      </c>
       <c r="Q791" t="str">
         <v>240 000</v>
       </c>
@@ -22368,6 +24735,9 @@
       <c r="H792" t="str">
         <v>17.04.2025</v>
       </c>
+      <c r="J792" t="str">
+        <v/>
+      </c>
     </row>
     <row r="793">
       <c r="A793" t="str">
@@ -22394,6 +24764,9 @@
       <c r="H793" t="str">
         <v>17.04.2025</v>
       </c>
+      <c r="J793" t="str">
+        <v/>
+      </c>
     </row>
     <row r="794">
       <c r="A794" t="str">
@@ -22420,6 +24793,9 @@
       <c r="H794" t="str">
         <v>17.04.2025</v>
       </c>
+      <c r="J794" t="str">
+        <v/>
+      </c>
     </row>
     <row r="795">
       <c r="A795" t="str">
@@ -22446,6 +24822,9 @@
       <c r="H795" t="str">
         <v>17.04.2025</v>
       </c>
+      <c r="J795" t="str">
+        <v/>
+      </c>
     </row>
     <row r="796">
       <c r="A796" t="str">
@@ -22472,6 +24851,9 @@
       <c r="H796" t="str">
         <v>17.04.2025</v>
       </c>
+      <c r="J796" t="str">
+        <v/>
+      </c>
     </row>
     <row r="797">
       <c r="A797" t="str">
@@ -22498,6 +24880,9 @@
       <c r="H797" t="str">
         <v>17.04.2025</v>
       </c>
+      <c r="J797" t="str">
+        <v/>
+      </c>
     </row>
     <row r="798">
       <c r="A798" t="str">
@@ -22524,6 +24909,9 @@
       <c r="H798" t="str">
         <v>18.04.2025</v>
       </c>
+      <c r="J798" t="str">
+        <v/>
+      </c>
     </row>
     <row r="799">
       <c r="A799" t="str">
@@ -22550,6 +24938,9 @@
       <c r="H799" t="str">
         <v>18.04.2025</v>
       </c>
+      <c r="J799" t="str">
+        <v/>
+      </c>
     </row>
     <row r="800">
       <c r="A800" t="str">
@@ -22576,6 +24967,9 @@
       <c r="H800" t="str">
         <v>18.04.2025</v>
       </c>
+      <c r="J800" t="str">
+        <v/>
+      </c>
     </row>
     <row r="801">
       <c r="A801" t="str">
@@ -22602,6 +24996,9 @@
       <c r="H801" t="str">
         <v>18.04.2025</v>
       </c>
+      <c r="J801" t="str">
+        <v/>
+      </c>
     </row>
     <row r="802">
       <c r="A802" t="str">
@@ -22628,6 +25025,9 @@
       <c r="H802" t="str">
         <v>18.04.2025</v>
       </c>
+      <c r="J802" t="str">
+        <v/>
+      </c>
     </row>
     <row r="803">
       <c r="A803" t="str">
@@ -22654,6 +25054,9 @@
       <c r="H803" t="str">
         <v>19.04.2025</v>
       </c>
+      <c r="J803" t="str">
+        <v/>
+      </c>
     </row>
     <row r="804">
       <c r="A804" t="str">
@@ -22680,6 +25083,9 @@
       <c r="H804" t="str">
         <v>20.04.2025</v>
       </c>
+      <c r="J804" t="str">
+        <v/>
+      </c>
     </row>
     <row r="805">
       <c r="A805" t="str">
@@ -22706,6 +25112,9 @@
       <c r="H805" t="str">
         <v>20.04.2025</v>
       </c>
+      <c r="J805" t="str">
+        <v/>
+      </c>
     </row>
     <row r="806">
       <c r="A806" t="str">
@@ -22732,6 +25141,9 @@
       <c r="H806" t="str">
         <v>20.04.2025</v>
       </c>
+      <c r="J806" t="str">
+        <v/>
+      </c>
     </row>
     <row r="807">
       <c r="A807" t="str">
@@ -22758,6 +25170,9 @@
       <c r="H807" t="str">
         <v>20.04.2025</v>
       </c>
+      <c r="J807" t="str">
+        <v/>
+      </c>
     </row>
     <row r="808">
       <c r="A808" t="str">
@@ -22784,6 +25199,9 @@
       <c r="H808" t="str">
         <v>21.04.2025</v>
       </c>
+      <c r="J808" t="str">
+        <v/>
+      </c>
     </row>
     <row r="809">
       <c r="A809" t="str">
@@ -22810,6 +25228,9 @@
       <c r="H809" t="str">
         <v>22.04.2025</v>
       </c>
+      <c r="J809" t="str">
+        <v/>
+      </c>
     </row>
     <row r="810">
       <c r="A810" t="str">
@@ -22836,6 +25257,9 @@
       <c r="H810" t="str">
         <v>22.04.2025</v>
       </c>
+      <c r="J810" t="str">
+        <v/>
+      </c>
     </row>
     <row r="811">
       <c r="A811" t="str">
@@ -22862,6 +25286,9 @@
       <c r="H811" t="str">
         <v>22.04.2025</v>
       </c>
+      <c r="J811" t="str">
+        <v/>
+      </c>
     </row>
     <row r="812">
       <c r="A812" t="str">
@@ -22888,6 +25315,9 @@
       <c r="H812" t="str">
         <v>23.04.2025</v>
       </c>
+      <c r="J812" t="str">
+        <v/>
+      </c>
     </row>
     <row r="813">
       <c r="A813" t="str">
@@ -22914,6 +25344,9 @@
       <c r="H813" t="str">
         <v>23.04.2025</v>
       </c>
+      <c r="J813" t="str">
+        <v/>
+      </c>
     </row>
     <row r="814">
       <c r="A814" t="str">
@@ -22940,6 +25373,9 @@
       <c r="H814" t="str">
         <v>23.04.2025</v>
       </c>
+      <c r="J814" t="str">
+        <v/>
+      </c>
     </row>
     <row r="815">
       <c r="A815" t="str">
@@ -22966,6 +25402,9 @@
       <c r="H815" t="str">
         <v>23.04.2025</v>
       </c>
+      <c r="J815" t="str">
+        <v/>
+      </c>
     </row>
     <row r="816">
       <c r="A816" t="str">
@@ -22992,6 +25431,9 @@
       <c r="H816" t="str">
         <v>23.04.2025</v>
       </c>
+      <c r="J816" t="str">
+        <v/>
+      </c>
     </row>
     <row r="817">
       <c r="A817" t="str">
@@ -23018,6 +25460,9 @@
       <c r="H817" t="str">
         <v>24.04.2025</v>
       </c>
+      <c r="J817" t="str">
+        <v/>
+      </c>
     </row>
     <row r="818">
       <c r="A818" t="str">
@@ -23044,6 +25489,9 @@
       <c r="H818" t="str">
         <v>24.04.2025</v>
       </c>
+      <c r="J818" t="str">
+        <v/>
+      </c>
     </row>
     <row r="819">
       <c r="A819" t="str">
@@ -23070,6 +25518,9 @@
       <c r="H819" t="str">
         <v>24.04.2025</v>
       </c>
+      <c r="J819" t="str">
+        <v/>
+      </c>
       <c r="M819">
         <v>1</v>
       </c>
@@ -23099,6 +25550,9 @@
       <c r="H820" t="str">
         <v>24.04.2025</v>
       </c>
+      <c r="J820" t="str">
+        <v/>
+      </c>
     </row>
     <row r="821">
       <c r="A821" t="str">
@@ -23125,6 +25579,9 @@
       <c r="H821" t="str">
         <v>24.04.2025</v>
       </c>
+      <c r="J821" t="str">
+        <v/>
+      </c>
     </row>
     <row r="822">
       <c r="A822" t="str">
@@ -23151,6 +25608,9 @@
       <c r="H822" t="str">
         <v>25.04.2025</v>
       </c>
+      <c r="J822" t="str">
+        <v/>
+      </c>
     </row>
     <row r="823">
       <c r="A823" t="str">
@@ -23177,6 +25637,9 @@
       <c r="H823" t="str">
         <v>27.04.2025</v>
       </c>
+      <c r="J823" t="str">
+        <v/>
+      </c>
     </row>
     <row r="824">
       <c r="A824" t="str">
@@ -23203,6 +25666,9 @@
       <c r="H824" t="str">
         <v>27.04.2025</v>
       </c>
+      <c r="J824" t="str">
+        <v/>
+      </c>
     </row>
     <row r="825">
       <c r="A825" t="str">
@@ -23229,6 +25695,9 @@
       <c r="H825" t="str">
         <v>27.04.2025</v>
       </c>
+      <c r="J825" t="str">
+        <v/>
+      </c>
     </row>
     <row r="826">
       <c r="A826" t="str">
@@ -23255,6 +25724,9 @@
       <c r="H826" t="str">
         <v>27.04.2025</v>
       </c>
+      <c r="J826" t="str">
+        <v/>
+      </c>
     </row>
     <row r="827">
       <c r="A827" t="str">
@@ -23281,6 +25753,9 @@
       <c r="H827" t="str">
         <v>28.04.2025</v>
       </c>
+      <c r="J827" t="str">
+        <v/>
+      </c>
     </row>
     <row r="828">
       <c r="A828" t="str">
@@ -23307,6 +25782,9 @@
       <c r="H828" t="str">
         <v>28.04.2025</v>
       </c>
+      <c r="J828" t="str">
+        <v/>
+      </c>
     </row>
     <row r="829">
       <c r="A829" t="str">
@@ -23333,6 +25811,9 @@
       <c r="H829" t="str">
         <v>28.04.2025</v>
       </c>
+      <c r="J829" t="str">
+        <v/>
+      </c>
     </row>
     <row r="830">
       <c r="A830" t="str">
@@ -23359,6 +25840,9 @@
       <c r="H830" t="str">
         <v>28.04.2025</v>
       </c>
+      <c r="J830" t="str">
+        <v/>
+      </c>
     </row>
     <row r="831">
       <c r="A831" t="str">
@@ -23385,6 +25869,9 @@
       <c r="H831" t="str">
         <v>28.04.2025</v>
       </c>
+      <c r="J831" t="str">
+        <v/>
+      </c>
     </row>
     <row r="832">
       <c r="A832" t="str">
@@ -23411,6 +25898,9 @@
       <c r="H832" t="str">
         <v>28.04.2025</v>
       </c>
+      <c r="J832" t="str">
+        <v/>
+      </c>
     </row>
     <row r="833">
       <c r="A833" t="str">
@@ -23437,6 +25927,9 @@
       <c r="H833" t="str">
         <v>28.04.2025</v>
       </c>
+      <c r="J833" t="str">
+        <v/>
+      </c>
     </row>
     <row r="834">
       <c r="A834" t="str">
@@ -23463,6 +25956,9 @@
       <c r="H834" t="str">
         <v>29.04.2025</v>
       </c>
+      <c r="J834" t="str">
+        <v/>
+      </c>
     </row>
     <row r="835">
       <c r="A835" t="str">
@@ -23489,6 +25985,9 @@
       <c r="H835" t="str">
         <v>29.04.2025</v>
       </c>
+      <c r="J835" t="str">
+        <v/>
+      </c>
     </row>
     <row r="836">
       <c r="A836" t="str">
@@ -23515,6 +26014,9 @@
       <c r="H836" t="str">
         <v>29.04.2025</v>
       </c>
+      <c r="J836" t="str">
+        <v/>
+      </c>
     </row>
     <row r="837">
       <c r="A837" t="str">
@@ -23541,6 +26043,9 @@
       <c r="H837" t="str">
         <v>29.04.2025</v>
       </c>
+      <c r="J837" t="str">
+        <v/>
+      </c>
     </row>
     <row r="838">
       <c r="A838" t="str">
@@ -23567,6 +26072,9 @@
       <c r="H838" t="str">
         <v>29.04.2025</v>
       </c>
+      <c r="J838" t="str">
+        <v/>
+      </c>
     </row>
     <row r="839">
       <c r="A839" t="str">
@@ -23593,6 +26101,9 @@
       <c r="H839" t="str">
         <v>29.04.2025</v>
       </c>
+      <c r="J839" t="str">
+        <v/>
+      </c>
     </row>
     <row r="840">
       <c r="A840" t="str">
@@ -23619,6 +26130,9 @@
       <c r="H840" t="str">
         <v>29.04.2025</v>
       </c>
+      <c r="J840" t="str">
+        <v/>
+      </c>
     </row>
     <row r="841">
       <c r="A841" t="str">
@@ -23645,6 +26159,9 @@
       <c r="H841" t="str">
         <v>30.04.2025</v>
       </c>
+      <c r="J841" t="str">
+        <v/>
+      </c>
     </row>
     <row r="842">
       <c r="A842" t="str">
@@ -23671,6 +26188,9 @@
       <c r="H842" t="str">
         <v>30.04.2025</v>
       </c>
+      <c r="J842" t="str">
+        <v/>
+      </c>
     </row>
     <row r="843">
       <c r="A843" t="str">
@@ -23697,6 +26217,9 @@
       <c r="H843" t="str">
         <v>30.04.2025</v>
       </c>
+      <c r="J843" t="str">
+        <v/>
+      </c>
     </row>
     <row r="844">
       <c r="A844" t="str">
@@ -23723,6 +26246,9 @@
       <c r="H844" t="str">
         <v>30.04.2025</v>
       </c>
+      <c r="J844" t="str">
+        <v/>
+      </c>
     </row>
     <row r="845">
       <c r="A845" t="str">
@@ -23749,6 +26275,9 @@
       <c r="H845" t="str">
         <v>30.04.2025</v>
       </c>
+      <c r="J845" t="str">
+        <v/>
+      </c>
     </row>
     <row r="846">
       <c r="A846" t="str">
@@ -23775,6 +26304,9 @@
       <c r="H846" t="str">
         <v>30.04.2025</v>
       </c>
+      <c r="J846" t="str">
+        <v/>
+      </c>
     </row>
     <row r="847">
       <c r="A847" t="str">
@@ -23801,6 +26333,9 @@
       <c r="H847" t="str">
         <v>30.04.2025</v>
       </c>
+      <c r="J847" t="str">
+        <v/>
+      </c>
     </row>
     <row r="848">
       <c r="A848" t="str">
@@ -23827,6 +26362,9 @@
       <c r="H848" t="str">
         <v>30.04.2025</v>
       </c>
+      <c r="J848" t="str">
+        <v/>
+      </c>
     </row>
     <row r="849">
       <c r="A849" t="str">
@@ -23853,6 +26391,9 @@
       <c r="H849" t="str">
         <v>30.04.2025</v>
       </c>
+      <c r="J849" t="str">
+        <v/>
+      </c>
     </row>
     <row r="850">
       <c r="A850" t="str">
@@ -23879,6 +26420,9 @@
       <c r="H850" t="str">
         <v>30.04.2025</v>
       </c>
+      <c r="J850" t="str">
+        <v/>
+      </c>
     </row>
     <row r="851">
       <c r="A851" t="str">
@@ -23905,6 +26449,9 @@
       <c r="H851" t="str">
         <v>01.05.2025</v>
       </c>
+      <c r="J851" t="str">
+        <v/>
+      </c>
     </row>
     <row r="852">
       <c r="A852" t="str">
@@ -23931,6 +26478,9 @@
       <c r="H852" t="str">
         <v>01.05.2025</v>
       </c>
+      <c r="J852" t="str">
+        <v/>
+      </c>
     </row>
     <row r="853">
       <c r="A853" t="str">
@@ -23957,6 +26507,9 @@
       <c r="H853" t="str">
         <v>01.05.2025</v>
       </c>
+      <c r="J853" t="str">
+        <v/>
+      </c>
     </row>
     <row r="854">
       <c r="A854" t="str">
@@ -23980,6 +26533,9 @@
       <c r="H854" t="str">
         <v>01.05.2025</v>
       </c>
+      <c r="J854" t="str">
+        <v/>
+      </c>
     </row>
     <row r="855">
       <c r="A855" t="str">
@@ -24006,6 +26562,9 @@
       <c r="H855" t="str">
         <v>01.05.2025</v>
       </c>
+      <c r="J855" t="str">
+        <v/>
+      </c>
     </row>
     <row r="856">
       <c r="A856" t="str">
@@ -24032,6 +26591,9 @@
       <c r="H856" t="str">
         <v>01.05.2025</v>
       </c>
+      <c r="J856" t="str">
+        <v/>
+      </c>
     </row>
     <row r="857">
       <c r="A857" t="str">
@@ -24058,6 +26620,9 @@
       <c r="H857" t="str">
         <v>02.05.2025</v>
       </c>
+      <c r="J857" t="str">
+        <v/>
+      </c>
     </row>
     <row r="858">
       <c r="A858" t="str">
@@ -24084,6 +26649,9 @@
       <c r="H858" t="str">
         <v>03.05.2025</v>
       </c>
+      <c r="J858" t="str">
+        <v/>
+      </c>
     </row>
     <row r="859">
       <c r="A859" t="str">
@@ -24110,6 +26678,9 @@
       <c r="H859" t="str">
         <v>03.05.2025</v>
       </c>
+      <c r="J859" t="str">
+        <v/>
+      </c>
     </row>
     <row r="860">
       <c r="A860" t="str">
@@ -24136,6 +26707,9 @@
       <c r="H860" t="str">
         <v>03.05.2025</v>
       </c>
+      <c r="J860" t="str">
+        <v/>
+      </c>
     </row>
     <row r="861">
       <c r="A861" t="str">
@@ -24162,6 +26736,9 @@
       <c r="H861" t="str">
         <v>03.05.2025</v>
       </c>
+      <c r="J861" t="str">
+        <v/>
+      </c>
     </row>
     <row r="862">
       <c r="A862" t="str">
@@ -24188,6 +26765,9 @@
       <c r="H862" t="str">
         <v>05.05.2025</v>
       </c>
+      <c r="J862" t="str">
+        <v/>
+      </c>
     </row>
     <row r="863">
       <c r="A863" t="str">
@@ -24214,6 +26794,9 @@
       <c r="H863" t="str">
         <v>05.05.2025</v>
       </c>
+      <c r="J863" t="str">
+        <v/>
+      </c>
     </row>
     <row r="864">
       <c r="A864" t="str">
@@ -24240,6 +26823,9 @@
       <c r="H864" t="str">
         <v>05.05.2025</v>
       </c>
+      <c r="J864" t="str">
+        <v/>
+      </c>
     </row>
     <row r="865">
       <c r="A865" t="str">
@@ -24266,6 +26852,9 @@
       <c r="H865" t="str">
         <v>05.05.2025</v>
       </c>
+      <c r="J865" t="str">
+        <v/>
+      </c>
     </row>
     <row r="866">
       <c r="A866" t="str">
@@ -24292,6 +26881,9 @@
       <c r="H866" t="str">
         <v>05.05.2025</v>
       </c>
+      <c r="J866" t="str">
+        <v/>
+      </c>
     </row>
     <row r="867">
       <c r="A867" t="str">
@@ -24318,6 +26910,9 @@
       <c r="H867" t="str">
         <v>07.05.2025</v>
       </c>
+      <c r="J867" t="str">
+        <v/>
+      </c>
     </row>
     <row r="868">
       <c r="A868" t="str">
@@ -24344,6 +26939,9 @@
       <c r="H868" t="str">
         <v>07.05.2025</v>
       </c>
+      <c r="J868" t="str">
+        <v/>
+      </c>
     </row>
     <row r="869">
       <c r="A869" t="str">
@@ -24370,6 +26968,9 @@
       <c r="H869" t="str">
         <v>07.05.2025</v>
       </c>
+      <c r="J869" t="str">
+        <v/>
+      </c>
     </row>
     <row r="870">
       <c r="A870" t="str">
@@ -24396,6 +26997,9 @@
       <c r="H870" t="str">
         <v>07.05.2025</v>
       </c>
+      <c r="J870" t="str">
+        <v/>
+      </c>
     </row>
     <row r="871">
       <c r="A871" t="str">
@@ -24422,6 +27026,9 @@
       <c r="H871" t="str">
         <v>07.05.2025</v>
       </c>
+      <c r="J871" t="str">
+        <v/>
+      </c>
     </row>
     <row r="872">
       <c r="A872" t="str">
@@ -24448,6 +27055,9 @@
       <c r="H872" t="str">
         <v>07.05.2025</v>
       </c>
+      <c r="J872" t="str">
+        <v/>
+      </c>
     </row>
     <row r="873">
       <c r="A873" t="str">
@@ -24474,6 +27084,9 @@
       <c r="H873" t="str">
         <v>08.05.2025</v>
       </c>
+      <c r="J873" t="str">
+        <v/>
+      </c>
     </row>
     <row r="874">
       <c r="A874" t="str">
@@ -24500,6 +27113,9 @@
       <c r="H874" t="str">
         <v>08.05.2025</v>
       </c>
+      <c r="J874" t="str">
+        <v/>
+      </c>
     </row>
     <row r="875">
       <c r="A875" t="str">
@@ -24526,6 +27142,9 @@
       <c r="H875" t="str">
         <v>08.05.2025</v>
       </c>
+      <c r="J875" t="str">
+        <v/>
+      </c>
     </row>
     <row r="876">
       <c r="A876" t="str">
@@ -24552,6 +27171,9 @@
       <c r="H876" t="str">
         <v>08.05.2025</v>
       </c>
+      <c r="J876" t="str">
+        <v/>
+      </c>
     </row>
     <row r="877">
       <c r="A877" t="str">
@@ -24578,6 +27200,9 @@
       <c r="H877" t="str">
         <v>08.05.2025</v>
       </c>
+      <c r="J877" t="str">
+        <v/>
+      </c>
     </row>
     <row r="878">
       <c r="A878" t="str">
@@ -24604,6 +27229,9 @@
       <c r="H878" t="str">
         <v>08.05.2025</v>
       </c>
+      <c r="J878" t="str">
+        <v/>
+      </c>
     </row>
     <row r="879">
       <c r="A879" t="str">
@@ -24630,6 +27258,9 @@
       <c r="H879" t="str">
         <v>08.05.2025</v>
       </c>
+      <c r="J879" t="str">
+        <v/>
+      </c>
     </row>
     <row r="880">
       <c r="A880" t="str">
@@ -24656,6 +27287,9 @@
       <c r="H880" t="str">
         <v>11.05.2025</v>
       </c>
+      <c r="J880" t="str">
+        <v/>
+      </c>
     </row>
     <row r="881">
       <c r="A881" t="str">
@@ -24682,6 +27316,9 @@
       <c r="H881" t="str">
         <v>11.05.2025</v>
       </c>
+      <c r="J881" t="str">
+        <v/>
+      </c>
     </row>
     <row r="882">
       <c r="A882" t="str">
@@ -24708,6 +27345,9 @@
       <c r="H882" t="str">
         <v>11.05.2025</v>
       </c>
+      <c r="J882" t="str">
+        <v/>
+      </c>
       <c r="M882" t="str">
         <v>100 т</v>
       </c>
@@ -24740,6 +27380,9 @@
       <c r="H883" t="str">
         <v>11.05.2025</v>
       </c>
+      <c r="J883" t="str">
+        <v/>
+      </c>
     </row>
     <row r="884">
       <c r="A884" t="str">
@@ -24766,6 +27409,9 @@
       <c r="H884" t="str">
         <v>11.05.2025</v>
       </c>
+      <c r="J884" t="str">
+        <v/>
+      </c>
     </row>
     <row r="885">
       <c r="A885" t="str">
@@ -24792,6 +27438,9 @@
       <c r="H885" t="str">
         <v>11.05.2025</v>
       </c>
+      <c r="J885" t="str">
+        <v/>
+      </c>
     </row>
     <row r="886">
       <c r="A886" t="str">
@@ -24818,6 +27467,9 @@
       <c r="H886" t="str">
         <v>11.05.2025</v>
       </c>
+      <c r="J886" t="str">
+        <v/>
+      </c>
     </row>
     <row r="887">
       <c r="A887" t="str">
@@ -24844,6 +27496,9 @@
       <c r="H887" t="str">
         <v>11.05.2025</v>
       </c>
+      <c r="J887" t="str">
+        <v/>
+      </c>
     </row>
     <row r="888">
       <c r="A888" t="str">
@@ -24870,6 +27525,9 @@
       <c r="H888" t="str">
         <v>11.05.2025</v>
       </c>
+      <c r="J888" t="str">
+        <v/>
+      </c>
     </row>
     <row r="889">
       <c r="A889" t="str">
@@ -24896,6 +27554,9 @@
       <c r="H889" t="str">
         <v>11.05.2025</v>
       </c>
+      <c r="J889" t="str">
+        <v/>
+      </c>
     </row>
     <row r="890">
       <c r="A890" t="str">
@@ -24922,6 +27583,9 @@
       <c r="H890" t="str">
         <v>11.05.2025</v>
       </c>
+      <c r="J890" t="str">
+        <v/>
+      </c>
     </row>
     <row r="891">
       <c r="A891" t="str">
@@ -24948,6 +27612,9 @@
       <c r="H891" t="str">
         <v>11.05.2025</v>
       </c>
+      <c r="J891" t="str">
+        <v/>
+      </c>
     </row>
     <row r="892">
       <c r="A892" t="str">
@@ -24974,6 +27641,9 @@
       <c r="H892" t="str">
         <v>11.05.2025</v>
       </c>
+      <c r="J892" t="str">
+        <v/>
+      </c>
     </row>
     <row r="893">
       <c r="A893" t="str">
@@ -25000,6 +27670,9 @@
       <c r="H893" t="str">
         <v>12.05.2025</v>
       </c>
+      <c r="J893" t="str">
+        <v/>
+      </c>
     </row>
     <row r="894">
       <c r="A894" t="str">
@@ -25026,6 +27699,9 @@
       <c r="H894" t="str">
         <v>12.05.2025</v>
       </c>
+      <c r="J894" t="str">
+        <v/>
+      </c>
     </row>
     <row r="895">
       <c r="A895" t="str">
@@ -25052,6 +27728,9 @@
       <c r="H895" t="str">
         <v>12.05.2025</v>
       </c>
+      <c r="J895" t="str">
+        <v/>
+      </c>
     </row>
     <row r="896">
       <c r="A896" t="str">
@@ -25078,6 +27757,9 @@
       <c r="H896" t="str">
         <v>12.05.2025</v>
       </c>
+      <c r="J896" t="str">
+        <v/>
+      </c>
     </row>
     <row r="897">
       <c r="A897" t="str">
@@ -25104,6 +27786,9 @@
       <c r="H897" t="str">
         <v>12.05.2025</v>
       </c>
+      <c r="J897" t="str">
+        <v/>
+      </c>
     </row>
     <row r="898">
       <c r="A898" t="str">
@@ -25130,6 +27815,9 @@
       <c r="H898" t="str">
         <v>12.05.2025</v>
       </c>
+      <c r="J898" t="str">
+        <v/>
+      </c>
     </row>
     <row r="899">
       <c r="A899" t="str">
@@ -25156,6 +27844,9 @@
       <c r="H899" t="str">
         <v>12.05.2025</v>
       </c>
+      <c r="J899" t="str">
+        <v/>
+      </c>
     </row>
     <row r="900">
       <c r="A900" t="str">
@@ -25182,6 +27873,9 @@
       <c r="H900" t="str">
         <v>12.05.2025</v>
       </c>
+      <c r="J900" t="str">
+        <v/>
+      </c>
     </row>
     <row r="901">
       <c r="A901" t="str">
@@ -25208,6 +27902,9 @@
       <c r="H901" t="str">
         <v>12.05.2025</v>
       </c>
+      <c r="J901" t="str">
+        <v/>
+      </c>
     </row>
     <row r="902">
       <c r="A902" t="str">
@@ -25234,6 +27931,9 @@
       <c r="H902" t="str">
         <v>12.05.2025</v>
       </c>
+      <c r="J902" t="str">
+        <v/>
+      </c>
     </row>
     <row r="903">
       <c r="A903" t="str">
@@ -25260,6 +27960,9 @@
       <c r="H903" t="str">
         <v>12.05.2025</v>
       </c>
+      <c r="J903" t="str">
+        <v/>
+      </c>
     </row>
     <row r="904">
       <c r="A904" t="str">
@@ -25286,6 +27989,9 @@
       <c r="H904" t="str">
         <v>12.05.2025</v>
       </c>
+      <c r="J904" t="str">
+        <v/>
+      </c>
     </row>
     <row r="905">
       <c r="A905" t="str">
@@ -25312,6 +28018,9 @@
       <c r="H905" t="str">
         <v>12.05.2025</v>
       </c>
+      <c r="J905" t="str">
+        <v/>
+      </c>
     </row>
     <row r="906">
       <c r="A906" t="str">
@@ -25338,6 +28047,9 @@
       <c r="H906" t="str">
         <v>13.05.2025</v>
       </c>
+      <c r="J906" t="str">
+        <v/>
+      </c>
     </row>
     <row r="907">
       <c r="A907" t="str">
@@ -25364,6 +28076,9 @@
       <c r="H907" t="str">
         <v>13.05.2025</v>
       </c>
+      <c r="J907" t="str">
+        <v/>
+      </c>
     </row>
     <row r="908">
       <c r="A908" t="str">
@@ -25390,6 +28105,9 @@
       <c r="H908" t="str">
         <v>13.05.2025</v>
       </c>
+      <c r="J908" t="str">
+        <v/>
+      </c>
     </row>
     <row r="909">
       <c r="A909" t="str">
@@ -25416,6 +28134,9 @@
       <c r="H909" t="str">
         <v>13.05.2025</v>
       </c>
+      <c r="J909" t="str">
+        <v/>
+      </c>
     </row>
     <row r="910">
       <c r="A910" t="str">
@@ -25442,6 +28163,9 @@
       <c r="H910" t="str">
         <v>13.05.2025</v>
       </c>
+      <c r="J910" t="str">
+        <v/>
+      </c>
     </row>
     <row r="911">
       <c r="A911" t="str">
@@ -25468,6 +28192,9 @@
       <c r="H911" t="str">
         <v>13.05.2025</v>
       </c>
+      <c r="J911" t="str">
+        <v/>
+      </c>
     </row>
     <row r="912">
       <c r="A912" t="str">
@@ -25494,6 +28221,9 @@
       <c r="H912" t="str">
         <v>14.05.2025</v>
       </c>
+      <c r="J912" t="str">
+        <v/>
+      </c>
     </row>
     <row r="913">
       <c r="A913" t="str">
@@ -25520,6 +28250,9 @@
       <c r="H913" t="str">
         <v>14.05.2025</v>
       </c>
+      <c r="J913" t="str">
+        <v/>
+      </c>
     </row>
     <row r="914">
       <c r="A914" t="str">
@@ -25546,6 +28279,9 @@
       <c r="H914" t="str">
         <v>14.05.2025</v>
       </c>
+      <c r="J914" t="str">
+        <v/>
+      </c>
     </row>
     <row r="915">
       <c r="A915" t="str">
@@ -25572,6 +28308,9 @@
       <c r="H915" t="str">
         <v>14.05.2025</v>
       </c>
+      <c r="J915" t="str">
+        <v/>
+      </c>
     </row>
     <row r="916">
       <c r="A916" t="str">
@@ -25598,6 +28337,9 @@
       <c r="H916" t="str">
         <v>14.05.2025</v>
       </c>
+      <c r="J916" t="str">
+        <v/>
+      </c>
     </row>
     <row r="917">
       <c r="A917" t="str">
@@ -25624,6 +28366,9 @@
       <c r="H917" t="str">
         <v>14.05.2025</v>
       </c>
+      <c r="J917" t="str">
+        <v/>
+      </c>
     </row>
     <row r="918">
       <c r="A918" t="str">
@@ -25650,6 +28395,9 @@
       <c r="H918" t="str">
         <v>14.05.2025</v>
       </c>
+      <c r="J918" t="str">
+        <v/>
+      </c>
     </row>
     <row r="919">
       <c r="A919" t="str">
@@ -25676,6 +28424,9 @@
       <c r="H919" t="str">
         <v>14.05.2025</v>
       </c>
+      <c r="J919" t="str">
+        <v/>
+      </c>
     </row>
     <row r="920">
       <c r="A920" t="str">
@@ -25702,6 +28453,9 @@
       <c r="H920" t="str">
         <v>15.05.2025</v>
       </c>
+      <c r="J920" t="str">
+        <v/>
+      </c>
     </row>
     <row r="921">
       <c r="A921" t="str">
@@ -25728,6 +28482,9 @@
       <c r="H921" t="str">
         <v>15.05.2025</v>
       </c>
+      <c r="J921" t="str">
+        <v/>
+      </c>
     </row>
     <row r="922">
       <c r="A922" t="str">
@@ -25754,6 +28511,9 @@
       <c r="H922" t="str">
         <v>15.05.2025</v>
       </c>
+      <c r="J922" t="str">
+        <v/>
+      </c>
     </row>
     <row r="923">
       <c r="A923" t="str">
@@ -25780,6 +28540,9 @@
       <c r="H923" t="str">
         <v>15.05.2025</v>
       </c>
+      <c r="J923" t="str">
+        <v/>
+      </c>
     </row>
     <row r="924">
       <c r="A924" t="str">
@@ -25806,6 +28569,9 @@
       <c r="H924" t="str">
         <v>15.05.2025</v>
       </c>
+      <c r="J924" t="str">
+        <v/>
+      </c>
     </row>
     <row r="925">
       <c r="A925" t="str">
@@ -25832,6 +28598,9 @@
       <c r="H925" t="str">
         <v>15.05.2025</v>
       </c>
+      <c r="J925" t="str">
+        <v/>
+      </c>
     </row>
     <row r="926">
       <c r="A926" t="str">
@@ -25858,6 +28627,9 @@
       <c r="H926" t="str">
         <v>15.05.2025</v>
       </c>
+      <c r="J926" t="str">
+        <v/>
+      </c>
     </row>
     <row r="927">
       <c r="A927" t="str">
@@ -25884,6 +28656,9 @@
       <c r="H927" t="str">
         <v>15.05.2025</v>
       </c>
+      <c r="J927" t="str">
+        <v/>
+      </c>
     </row>
     <row r="928">
       <c r="A928" t="str">
@@ -25910,6 +28685,9 @@
       <c r="H928" t="str">
         <v>15.05.2025</v>
       </c>
+      <c r="J928" t="str">
+        <v/>
+      </c>
     </row>
     <row r="929">
       <c r="A929" t="str">
@@ -25936,6 +28714,9 @@
       <c r="H929" t="str">
         <v>15.05.2025</v>
       </c>
+      <c r="J929" t="str">
+        <v/>
+      </c>
     </row>
     <row r="930">
       <c r="A930" t="str">
@@ -25962,6 +28743,9 @@
       <c r="H930" t="str">
         <v>15.05.2025</v>
       </c>
+      <c r="J930" t="str">
+        <v/>
+      </c>
     </row>
     <row r="931">
       <c r="A931" t="str">
@@ -25988,6 +28772,9 @@
       <c r="H931" t="str">
         <v>15.05.2025</v>
       </c>
+      <c r="J931" t="str">
+        <v/>
+      </c>
     </row>
     <row r="932">
       <c r="A932" t="str">
@@ -26014,6 +28801,9 @@
       <c r="H932" t="str">
         <v>15.05.2025</v>
       </c>
+      <c r="J932" t="str">
+        <v/>
+      </c>
     </row>
     <row r="933">
       <c r="A933" t="str">
@@ -26040,6 +28830,9 @@
       <c r="H933" t="str">
         <v>15.05.2025</v>
       </c>
+      <c r="J933" t="str">
+        <v/>
+      </c>
     </row>
     <row r="934">
       <c r="A934" t="str">
@@ -26066,6 +28859,9 @@
       <c r="H934" t="str">
         <v>15.05.2025</v>
       </c>
+      <c r="J934" t="str">
+        <v/>
+      </c>
     </row>
     <row r="935">
       <c r="A935" t="str">
@@ -26092,6 +28888,9 @@
       <c r="H935" t="str">
         <v>15.05.2025</v>
       </c>
+      <c r="J935" t="str">
+        <v/>
+      </c>
     </row>
     <row r="936">
       <c r="A936" t="str">
@@ -26118,6 +28917,9 @@
       <c r="H936" t="str">
         <v>15.05.2025</v>
       </c>
+      <c r="J936" t="str">
+        <v/>
+      </c>
     </row>
     <row r="937">
       <c r="A937" t="str">
@@ -26144,6 +28946,9 @@
       <c r="H937" t="str">
         <v>15.05.2025</v>
       </c>
+      <c r="J937" t="str">
+        <v/>
+      </c>
     </row>
     <row r="938">
       <c r="A938" t="str">
@@ -26169,6 +28974,9 @@
       </c>
       <c r="H938" t="str">
         <v>15.05.2025</v>
+      </c>
+      <c r="J938" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/ishtrokchilar.xlsx
+++ b/ishtrokchilar.xlsx
@@ -11441,7 +11441,7 @@
         <v>45667</v>
       </c>
       <c r="J350" t="str">
-        <v/>
+        <v>выполнил</v>
       </c>
     </row>
     <row r="351">

--- a/ishtrokchilar.xlsx
+++ b/ishtrokchilar.xlsx
@@ -22644,7 +22644,7 @@
         <v>28.03.2025</v>
       </c>
       <c r="J721" t="str">
-        <v/>
+        <v>выполнил</v>
       </c>
     </row>
     <row r="722">

--- a/ishtrokchilar.xlsx
+++ b/ishtrokchilar.xlsx
@@ -17437,7 +17437,7 @@
         <v>13.02.2025</v>
       </c>
       <c r="J543" t="str">
-        <v/>
+        <v>выполнил</v>
       </c>
     </row>
     <row r="544">
@@ -22644,7 +22644,7 @@
         <v>28.03.2025</v>
       </c>
       <c r="J721" t="str">
-        <v>выполнил</v>
+        <v/>
       </c>
     </row>
     <row r="722">

--- a/ishtrokchilar.xlsx
+++ b/ishtrokchilar.xlsx
@@ -3563,7 +3563,7 @@
         <v>200000</v>
       </c>
       <c r="J98" t="str">
-        <v/>
+        <v>выполнил</v>
       </c>
     </row>
     <row r="99">

--- a/ishtrokchilar.xlsx
+++ b/ishtrokchilar.xlsx
@@ -3211,7 +3211,7 @@
         <v>200000</v>
       </c>
       <c r="J87" t="str">
-        <v/>
+        <v>выполнил</v>
       </c>
     </row>
     <row r="88">

--- a/ishtrokchilar.xlsx
+++ b/ishtrokchilar.xlsx
@@ -3211,7 +3211,7 @@
         <v>200000</v>
       </c>
       <c r="J87" t="str">
-        <v>выполнил</v>
+        <v>нет</v>
       </c>
     </row>
     <row r="88">

--- a/ishtrokchilar.xlsx
+++ b/ishtrokchilar.xlsx
@@ -3563,7 +3563,7 @@
         <v>200000</v>
       </c>
       <c r="J98" t="str">
-        <v>выполнил</v>
+        <v>нет</v>
       </c>
     </row>
     <row r="99">

--- a/ishtrokchilar.xlsx
+++ b/ishtrokchilar.xlsx
@@ -3595,7 +3595,7 @@
         <v>200000</v>
       </c>
       <c r="J99" t="str">
-        <v>выполнил</v>
+        <v>нет</v>
       </c>
     </row>
     <row r="100">

--- a/ishtrokchilar.xlsx
+++ b/ishtrokchilar.xlsx
@@ -10843,7 +10843,7 @@
         <v>200000</v>
       </c>
       <c r="J330" t="str">
-        <v>выполнил</v>
+        <v>нет</v>
       </c>
     </row>
     <row r="331">

--- a/ishtrokchilar.xlsx
+++ b/ishtrokchilar.xlsx
@@ -3051,7 +3051,7 @@
         <v>200000</v>
       </c>
       <c r="J82" t="str">
-        <v/>
+        <v>выполнил</v>
       </c>
     </row>
     <row r="83">

--- a/ishtrokchilar.xlsx
+++ b/ishtrokchilar.xlsx
@@ -17437,7 +17437,7 @@
         <v>13.02.2025</v>
       </c>
       <c r="J543" t="str">
-        <v>выполнил</v>
+        <v>нет</v>
       </c>
     </row>
     <row r="544">

--- a/ishtrokchilar.xlsx
+++ b/ishtrokchilar.xlsx
@@ -3051,7 +3051,7 @@
         <v>200000</v>
       </c>
       <c r="J82" t="str">
-        <v>выполнил</v>
+        <v>нет</v>
       </c>
     </row>
     <row r="83">
@@ -17437,7 +17437,7 @@
         <v>13.02.2025</v>
       </c>
       <c r="J543" t="str">
-        <v>нет</v>
+        <v>выполнил</v>
       </c>
     </row>
     <row r="544">

--- a/ishtrokchilar.xlsx
+++ b/ishtrokchilar.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Участники" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>

--- a/ishtrokchilar.xlsx
+++ b/ishtrokchilar.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Участники" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -8520,7 +8520,7 @@
         <v>200000</v>
       </c>
       <c r="J253" t="str">
-        <v>нет</v>
+        <v>выполнил</v>
       </c>
     </row>
     <row r="254">

--- a/ishtrokchilar.xlsx
+++ b/ishtrokchilar.xlsx
@@ -8520,7 +8520,7 @@
         <v>200000</v>
       </c>
       <c r="J253" t="str">
-        <v>выполнил</v>
+        <v>нет</v>
       </c>
     </row>
     <row r="254">

--- a/ishtrokchilar.xlsx
+++ b/ishtrokchilar.xlsx
@@ -520,7 +520,7 @@
         <v>200000</v>
       </c>
       <c r="J3" t="str">
-        <v>нет</v>
+        <v>выполнил</v>
       </c>
     </row>
     <row r="4">

--- a/ishtrokchilar.xlsx
+++ b/ishtrokchilar.xlsx
@@ -488,7 +488,7 @@
         <v>200000</v>
       </c>
       <c r="J2" t="str">
-        <v>выполнил</v>
+        <v>нет</v>
       </c>
     </row>
     <row r="3">
@@ -520,7 +520,7 @@
         <v>200000</v>
       </c>
       <c r="J3" t="str">
-        <v>выполнил</v>
+        <v>нет</v>
       </c>
     </row>
     <row r="4">

--- a/ishtrokchilar.xlsx
+++ b/ishtrokchilar.xlsx
@@ -3592,7 +3592,7 @@
         <v>200000</v>
       </c>
       <c r="J99" t="str">
-        <v>нет</v>
+        <v>выполнил</v>
       </c>
     </row>
     <row r="100">

--- a/ishtrokchilar.xlsx
+++ b/ishtrokchilar.xlsx
@@ -3592,7 +3592,7 @@
         <v>200000</v>
       </c>
       <c r="J99" t="str">
-        <v>выполнил</v>
+        <v>нет</v>
       </c>
     </row>
     <row r="100">

--- a/ishtrokchilar.xlsx
+++ b/ishtrokchilar.xlsx
@@ -4072,7 +4072,7 @@
         <v>200000</v>
       </c>
       <c r="J114" t="str">
-        <v>нет</v>
+        <v>выполнил</v>
       </c>
     </row>
     <row r="115">

--- a/ishtrokchilar.xlsx
+++ b/ishtrokchilar.xlsx
@@ -10184,7 +10184,7 @@
         <v>200000</v>
       </c>
       <c r="J305" t="str">
-        <v>нет</v>
+        <v>выполнил</v>
       </c>
     </row>
     <row r="306">

--- a/ishtrokchilar.xlsx
+++ b/ishtrokchilar.xlsx
@@ -9736,7 +9736,7 @@
         <v>200000</v>
       </c>
       <c r="J291" t="str">
-        <v>нет</v>
+        <v>выполнил</v>
       </c>
     </row>
     <row r="292">
@@ -10184,7 +10184,7 @@
         <v>200000</v>
       </c>
       <c r="J305" t="str">
-        <v>выполнил</v>
+        <v>нет</v>
       </c>
     </row>
     <row r="306">

--- a/ishtrokchilar.xlsx
+++ b/ishtrokchilar.xlsx
@@ -9768,7 +9768,7 @@
         <v>200000</v>
       </c>
       <c r="J292" t="str">
-        <v>нет</v>
+        <v>выполнил</v>
       </c>
     </row>
     <row r="293">

--- a/ishtrokchilar.xlsx
+++ b/ishtrokchilar.xlsx
@@ -9736,7 +9736,7 @@
         <v>200000</v>
       </c>
       <c r="J291" t="str">
-        <v>выполнил</v>
+        <v>нет</v>
       </c>
     </row>
     <row r="292">

--- a/ishtrokchilar.xlsx
+++ b/ishtrokchilar.xlsx
@@ -9736,7 +9736,7 @@
         <v>200000</v>
       </c>
       <c r="J291" t="str">
-        <v>нет</v>
+        <v>выполнил</v>
       </c>
     </row>
     <row r="292">

--- a/ishtrokchilar.xlsx
+++ b/ishtrokchilar.xlsx
@@ -9800,7 +9800,7 @@
         <v>200000</v>
       </c>
       <c r="J293" t="str">
-        <v>нет</v>
+        <v>выполнил</v>
       </c>
     </row>
     <row r="294">

--- a/ishtrokchilar.xlsx
+++ b/ishtrokchilar.xlsx
@@ -9768,7 +9768,7 @@
         <v>200000</v>
       </c>
       <c r="J292" t="str">
-        <v>выполнил</v>
+        <v>нет</v>
       </c>
     </row>
     <row r="293">

--- a/ishtrokchilar.xlsx
+++ b/ishtrokchilar.xlsx
@@ -4104,7 +4104,7 @@
         <v>200000</v>
       </c>
       <c r="J115" t="str">
-        <v>нет</v>
+        <v>выполнил</v>
       </c>
     </row>
     <row r="116">

--- a/ishtrokchilar.xlsx
+++ b/ishtrokchilar.xlsx
@@ -7336,7 +7336,7 @@
         <v>200000</v>
       </c>
       <c r="J216" t="str">
-        <v>нет</v>
+        <v>выполнил</v>
       </c>
     </row>
     <row r="217">

--- a/ishtrokchilar.xlsx
+++ b/ishtrokchilar.xlsx
@@ -12584,7 +12584,7 @@
         <v>200000</v>
       </c>
       <c r="J380" t="str">
-        <v>нет</v>
+        <v>выполнил</v>
       </c>
     </row>
     <row r="381">

--- a/ishtrokchilar.xlsx
+++ b/ishtrokchilar.xlsx
@@ -29549,7 +29549,7 @@
         <v>15.05.2025</v>
       </c>
       <c r="J932" t="str">
-        <v>нет</v>
+        <v>выполнил</v>
       </c>
     </row>
     <row r="933">

--- a/ishtrokchilar.xlsx
+++ b/ishtrokchilar.xlsx
@@ -25021,7 +25021,7 @@
         <v>09.04.2025</v>
       </c>
       <c r="J777" t="str">
-        <v>нет</v>
+        <v>выполнил</v>
       </c>
     </row>
     <row r="778">
@@ -29549,7 +29549,7 @@
         <v>15.05.2025</v>
       </c>
       <c r="J932" t="str">
-        <v>выполнил</v>
+        <v>нет</v>
       </c>
     </row>
     <row r="933">

--- a/ishtrokchilar.xlsx
+++ b/ishtrokchilar.xlsx
@@ -25021,7 +25021,7 @@
         <v>09.04.2025</v>
       </c>
       <c r="J777" t="str">
-        <v>выполнил</v>
+        <v>нет</v>
       </c>
     </row>
     <row r="778">
@@ -29549,7 +29549,7 @@
         <v>15.05.2025</v>
       </c>
       <c r="J932" t="str">
-        <v>нет</v>
+        <v>выполнил</v>
       </c>
     </row>
     <row r="933">

--- a/ishtrokchilar.xlsx
+++ b/ishtrokchilar.xlsx
@@ -24992,7 +24992,7 @@
         <v>09.04.2025</v>
       </c>
       <c r="J776" t="str">
-        <v>нет</v>
+        <v>выполнил</v>
       </c>
     </row>
     <row r="777">

--- a/ishtrokchilar.xlsx
+++ b/ishtrokchilar.xlsx
@@ -24992,7 +24992,7 @@
         <v>09.04.2025</v>
       </c>
       <c r="J776" t="str">
-        <v>выполнил</v>
+        <v>нет</v>
       </c>
     </row>
     <row r="777">
@@ -25021,7 +25021,7 @@
         <v>09.04.2025</v>
       </c>
       <c r="J777" t="str">
-        <v>нет</v>
+        <v>выполнил</v>
       </c>
     </row>
     <row r="778">
